--- a/results_edge.xlsx
+++ b/results_edge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55B9506-FA8E-E34E-B1AC-8084C13916F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94EDE8B-931B-E048-B72C-8F0639F3B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="840" windowWidth="33600" windowHeight="19100" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="307">
   <si>
     <t>Backdoor</t>
   </si>
@@ -906,6 +906,57 @@
   </si>
   <si>
     <t>87.77%</t>
+  </si>
+  <si>
+    <t>RealTabFormer</t>
+  </si>
+  <si>
+    <t>90.68%</t>
+  </si>
+  <si>
+    <t>98.00%</t>
+  </si>
+  <si>
+    <t>90.58%</t>
+  </si>
+  <si>
+    <t>94.86%</t>
+  </si>
+  <si>
+    <t>96.07%</t>
+  </si>
+  <si>
+    <t>94.38%</t>
+  </si>
+  <si>
+    <t>75.75%</t>
+  </si>
+  <si>
+    <t>98.49%</t>
+  </si>
+  <si>
+    <t>98.50%</t>
+  </si>
+  <si>
+    <t>92.59%</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>93.87%</t>
+  </si>
+  <si>
+    <t>95.35%</t>
+  </si>
+  <si>
+    <t>94.13%</t>
+  </si>
+  <si>
+    <t>80.95%</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -969,8 +1020,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
   <dimension ref="A1:AC89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="68" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,39 +1362,40 @@
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
       <c r="X1" t="s">
         <v>16</v>
       </c>
@@ -2839,7 +2895,7 @@
       <c r="M23" t="s">
         <v>73</v>
       </c>
-      <c r="V23" s="6"/>
+      <c r="V23" s="7"/>
       <c r="W23" t="s">
         <v>101</v>
       </c>
@@ -2863,7 +2919,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
@@ -2890,10 +2946,10 @@
       <c r="I24" t="s">
         <v>37</v>
       </c>
-      <c r="V24" s="6"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -2918,10 +2974,10 @@
       <c r="I25" t="s">
         <v>140</v>
       </c>
-      <c r="V25" s="6"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2946,10 +3002,10 @@
       <c r="I26" t="s">
         <v>57</v>
       </c>
-      <c r="V26" s="6"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
@@ -2976,10 +3032,10 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="6"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -3004,10 +3060,10 @@
       <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="V28" s="6"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -3060,27 +3116,27 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -3689,7 +3745,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -3730,8 +3786,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B50" t="s">
@@ -3777,8 +3833,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -3822,8 +3878,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -3867,8 +3923,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B53" t="s">
@@ -3914,8 +3970,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -3959,8 +4015,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -4004,7 +4060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>101</v>
       </c>
@@ -4048,39 +4104,43 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5" t="s">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B61" s="6"/>
       <c r="C61" t="s">
         <v>7</v>
       </c>
@@ -4091,31 +4151,31 @@
         <v>222</v>
       </c>
       <c r="F61" t="s">
+        <v>290</v>
+      </c>
+      <c r="G61" t="s">
         <v>7</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>217</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>222</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
+        <v>290</v>
+      </c>
+      <c r="K61" t="s">
         <v>7</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>217</v>
       </c>
-      <c r="K61" t="s">
+      <c r="M61" t="s">
         <v>222</v>
       </c>
-      <c r="L61" t="s">
-        <v>7</v>
-      </c>
-      <c r="M61" t="s">
-        <v>217</v>
-      </c>
       <c r="N61" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="O61" t="s">
         <v>7</v>
@@ -4126,28 +4186,43 @@
       <c r="Q61" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
+      <c r="R61" t="s">
+        <v>290</v>
+      </c>
+      <c r="S61" t="s">
+        <v>7</v>
+      </c>
+      <c r="T61" t="s">
+        <v>217</v>
+      </c>
+      <c r="U61" t="s">
+        <v>222</v>
+      </c>
+      <c r="V61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B62" s="6"/>
+      <c r="C62" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -4161,28 +4236,28 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
         <v>32</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>17</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>32</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="s">
         <v>17</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>17</v>
       </c>
-      <c r="K63" t="s">
+      <c r="M63" t="s">
         <v>32</v>
-      </c>
-      <c r="L63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" t="s">
-        <v>17</v>
       </c>
       <c r="N63" t="s">
         <v>32</v>
@@ -4194,10 +4269,25 @@
         <v>17</v>
       </c>
       <c r="Q63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63" t="s">
+        <v>32</v>
+      </c>
+      <c r="T63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>17</v>
+      </c>
+      <c r="V63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>1</v>
       </c>
@@ -4213,41 +4303,56 @@
       <c r="F64" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
         <v>166</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>18</v>
       </c>
-      <c r="I64" t="s">
-        <v>25</v>
-      </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
         <v>25</v>
       </c>
       <c r="L64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" t="s">
         <v>42</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="s">
         <v>42</v>
       </c>
-      <c r="N64" t="s">
+      <c r="Q64" t="s">
         <v>42</v>
       </c>
-      <c r="O64" t="s">
+      <c r="R64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S64" t="s">
         <v>25</v>
       </c>
-      <c r="P64" t="s">
+      <c r="T64" t="s">
         <v>48</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="U64" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>2</v>
       </c>
@@ -4296,8 +4401,23 @@
       <c r="Q65" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" t="s">
+        <v>23</v>
+      </c>
+      <c r="S65" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" t="s">
+        <v>23</v>
+      </c>
+      <c r="U65" t="s">
+        <v>23</v>
+      </c>
+      <c r="V65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -4320,34 +4440,49 @@
         <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
         <v>45</v>
       </c>
       <c r="L66" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M66" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O66" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" t="s">
+        <v>23</v>
+      </c>
+      <c r="S66" t="s">
         <v>45</v>
       </c>
-      <c r="P66" t="s">
+      <c r="T66" t="s">
         <v>48</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="U66" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>4</v>
       </c>
@@ -4396,8 +4531,23 @@
       <c r="Q67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67" t="s">
+        <v>23</v>
+      </c>
+      <c r="T67" t="s">
+        <v>23</v>
+      </c>
+      <c r="U67" t="s">
+        <v>23</v>
+      </c>
+      <c r="V67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -4411,43 +4561,58 @@
         <v>50</v>
       </c>
       <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s">
         <v>166</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>62</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>61</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
+        <v>166</v>
+      </c>
+      <c r="K68" t="s">
         <v>64</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>192</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="M68" t="s">
         <v>161</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O68" t="s">
         <v>21</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>251</v>
       </c>
-      <c r="N68" t="s">
+      <c r="Q68" t="s">
         <v>22</v>
       </c>
-      <c r="O68" t="s">
+      <c r="R68" t="s">
+        <v>57</v>
+      </c>
+      <c r="S68" t="s">
         <v>64</v>
       </c>
-      <c r="P68" t="s">
+      <c r="T68" t="s">
         <v>192</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="U68" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>6</v>
       </c>
@@ -4470,34 +4635,49 @@
         <v>23</v>
       </c>
       <c r="I69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
         <v>76</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="L69" t="s">
         <v>37</v>
       </c>
-      <c r="K69" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" t="s">
-        <v>23</v>
-      </c>
       <c r="M69" t="s">
         <v>23</v>
       </c>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="O69" t="s">
         <v>23</v>
       </c>
       <c r="P69" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>23</v>
+      </c>
+      <c r="R69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" t="s">
+        <v>23</v>
+      </c>
+      <c r="T69" t="s">
         <v>76</v>
       </c>
-      <c r="Q69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="U69" t="s">
+        <v>23</v>
+      </c>
+      <c r="V69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>7</v>
       </c>
@@ -4546,8 +4726,23 @@
       <c r="Q70" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70" t="s">
+        <v>23</v>
+      </c>
+      <c r="T70" t="s">
+        <v>23</v>
+      </c>
+      <c r="U70" t="s">
+        <v>23</v>
+      </c>
+      <c r="V70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>8</v>
       </c>
@@ -4561,43 +4756,58 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
         <v>19</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>39</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>21</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" t="s">
         <v>234</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="L71" t="s">
         <v>62</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="M71" t="s">
         <v>62</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
+        <v>62</v>
+      </c>
+      <c r="O71" t="s">
         <v>75</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>75</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="Q71" t="s">
         <v>37</v>
       </c>
-      <c r="O71" t="s">
+      <c r="R71" t="s">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s">
         <v>62</v>
       </c>
-      <c r="P71" t="s">
+      <c r="T71" t="s">
         <v>174</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="U71" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>9</v>
       </c>
@@ -4611,43 +4821,58 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
         <v>56</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>20</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>56</v>
       </c>
-      <c r="I72" t="s">
-        <v>136</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>84</v>
+      <c r="J72" t="s">
+        <v>56</v>
       </c>
       <c r="K72" t="s">
         <v>136</v>
       </c>
       <c r="L72" t="s">
+        <v>84</v>
+      </c>
+      <c r="M72" t="s">
+        <v>136</v>
+      </c>
+      <c r="N72" t="s">
+        <v>50</v>
+      </c>
+      <c r="O72" t="s">
         <v>56</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>32</v>
       </c>
-      <c r="N72" t="s">
+      <c r="Q72" t="s">
         <v>56</v>
       </c>
-      <c r="O72" t="s">
+      <c r="R72" t="s">
+        <v>56</v>
+      </c>
+      <c r="S72" t="s">
         <v>136</v>
       </c>
-      <c r="P72" t="s">
+      <c r="T72" t="s">
         <v>84</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="U72" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>10</v>
       </c>
@@ -4661,28 +4886,28 @@
         <v>18</v>
       </c>
       <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
         <v>20</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>18</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>20</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s">
         <v>18</v>
-      </c>
-      <c r="J73" t="s">
-        <v>49</v>
-      </c>
-      <c r="K73" t="s">
-        <v>49</v>
       </c>
       <c r="L73" t="s">
         <v>49</v>
       </c>
       <c r="M73" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N73" t="s">
         <v>49</v>
@@ -4691,13 +4916,28 @@
         <v>49</v>
       </c>
       <c r="P73" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q73" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" t="s">
+        <v>49</v>
+      </c>
+      <c r="S73" t="s">
+        <v>49</v>
+      </c>
+      <c r="T73" t="s">
+        <v>49</v>
+      </c>
+      <c r="U73" t="s">
+        <v>49</v>
+      </c>
+      <c r="V73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -4714,40 +4954,55 @@
         <v>25</v>
       </c>
       <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s">
         <v>136</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
         <v>118</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>174</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>174</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
+        <v>39</v>
+      </c>
+      <c r="O74" t="s">
         <v>37</v>
       </c>
-      <c r="M74" t="s">
+      <c r="P74" t="s">
         <v>37</v>
       </c>
-      <c r="N74" t="s">
+      <c r="Q74" t="s">
         <v>37</v>
       </c>
-      <c r="O74" t="s">
+      <c r="R74" t="s">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s">
         <v>39</v>
       </c>
-      <c r="P74" t="s">
+      <c r="T74" t="s">
         <v>44</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="U74" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -4761,43 +5016,58 @@
         <v>140</v>
       </c>
       <c r="F75" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" t="s">
         <v>22</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>38</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>57</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" t="s">
         <v>85</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>85</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="M75" t="s">
         <v>40</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
+        <v>85</v>
+      </c>
+      <c r="O75" t="s">
         <v>75</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="s">
         <v>75</v>
       </c>
-      <c r="N75" t="s">
+      <c r="Q75" t="s">
         <v>75</v>
       </c>
-      <c r="O75" t="s">
+      <c r="R75" t="s">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s">
         <v>85</v>
       </c>
-      <c r="P75" t="s">
+      <c r="T75" t="s">
         <v>85</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="U75" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>13</v>
       </c>
@@ -4811,43 +5081,58 @@
         <v>17</v>
       </c>
       <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
         <v>32</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>49</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>17</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
         <v>45</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>100</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>100</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
+        <v>45</v>
+      </c>
+      <c r="O76" t="s">
         <v>56</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="s">
         <v>56</v>
       </c>
-      <c r="N76" t="s">
+      <c r="Q76" t="s">
         <v>56</v>
       </c>
-      <c r="O76" t="s">
+      <c r="R76" t="s">
+        <v>56</v>
+      </c>
+      <c r="S76" t="s">
         <v>63</v>
       </c>
-      <c r="P76" t="s">
+      <c r="T76" t="s">
         <v>63</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="U76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>14</v>
       </c>
@@ -4861,43 +5146,58 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
         <v>57</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>96</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>57</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" t="s">
         <v>192</v>
       </c>
-      <c r="J77" t="s">
+      <c r="L77" t="s">
         <v>35</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="M77" t="s">
         <v>243</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
+        <v>251</v>
+      </c>
+      <c r="O77" t="s">
         <v>190</v>
       </c>
-      <c r="M77" t="s">
+      <c r="P77" t="s">
         <v>37</v>
       </c>
-      <c r="N77" t="s">
+      <c r="Q77" t="s">
         <v>190</v>
       </c>
-      <c r="O77" t="s">
+      <c r="R77" t="s">
+        <v>43</v>
+      </c>
+      <c r="S77" t="s">
         <v>179</v>
       </c>
-      <c r="P77" t="s">
+      <c r="T77" t="s">
         <v>66</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="U77" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>26</v>
       </c>
@@ -4911,43 +5211,58 @@
         <v>223</v>
       </c>
       <c r="F79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" t="s">
         <v>224</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>227</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>231</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
+        <v>292</v>
+      </c>
+      <c r="K79" t="s">
         <v>235</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="L79" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="K79" t="s">
+      <c r="M79" t="s">
         <v>244</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
+        <v>294</v>
+      </c>
+      <c r="O79" t="s">
         <v>248</v>
       </c>
-      <c r="M79" t="s">
+      <c r="P79" t="s">
         <v>252</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="Q79" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O79" t="s">
+      <c r="R79" t="s">
+        <v>298</v>
+      </c>
+      <c r="S79" t="s">
         <v>272</v>
       </c>
-      <c r="P79" t="s">
+      <c r="T79" t="s">
         <v>275</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="U79" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="V79" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>27</v>
       </c>
@@ -4961,43 +5276,58 @@
         <v>223</v>
       </c>
       <c r="F80" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" t="s">
         <v>225</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>228</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>231</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
+        <v>232</v>
+      </c>
+      <c r="K80" t="s">
         <v>236</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="L80" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
         <v>245</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
+        <v>295</v>
+      </c>
+      <c r="O80" t="s">
         <v>249</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="s">
         <v>92</v>
       </c>
-      <c r="N80" s="3" t="s">
+      <c r="Q80" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="O80" t="s">
+      <c r="R80" t="s">
+        <v>248</v>
+      </c>
+      <c r="S80" t="s">
         <v>240</v>
       </c>
-      <c r="P80" t="s">
+      <c r="T80" t="s">
         <v>276</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="U80" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V80" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>28</v>
       </c>
@@ -5011,43 +5341,58 @@
         <v>223</v>
       </c>
       <c r="F81" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" t="s">
         <v>224</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>227</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>231</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
+        <v>292</v>
+      </c>
+      <c r="K81" t="s">
         <v>235</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="K81" t="s">
+      <c r="M81" t="s">
         <v>244</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
+        <v>294</v>
+      </c>
+      <c r="O81" t="s">
         <v>248</v>
       </c>
-      <c r="M81" t="s">
+      <c r="P81" t="s">
         <v>252</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="Q81" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O81" t="s">
+      <c r="R81" t="s">
+        <v>298</v>
+      </c>
+      <c r="S81" t="s">
         <v>273</v>
       </c>
-      <c r="P81" t="s">
+      <c r="T81" t="s">
         <v>275</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="U81" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V81" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>30</v>
       </c>
@@ -5061,43 +5406,58 @@
         <v>223</v>
       </c>
       <c r="F82" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" t="s">
         <v>224</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>229</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>232</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
+        <v>292</v>
+      </c>
+      <c r="K82" t="s">
         <v>237</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="L82" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>246</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
+        <v>296</v>
+      </c>
+      <c r="O82" t="s">
         <v>250</v>
       </c>
-      <c r="M82" t="s">
+      <c r="P82" t="s">
         <v>253</v>
       </c>
-      <c r="N82" s="3" t="s">
+      <c r="Q82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O82" t="s">
+      <c r="R82" t="s">
+        <v>299</v>
+      </c>
+      <c r="S82" t="s">
         <v>274</v>
       </c>
-      <c r="P82" t="s">
+      <c r="T82" t="s">
         <v>277</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="U82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>97</v>
       </c>
@@ -5114,34 +5474,46 @@
         <v>45</v>
       </c>
       <c r="F83" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" t="s">
         <v>18</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>25</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>18</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="L83" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K83" t="s">
+      <c r="M83" t="s">
         <v>190</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
+        <v>43</v>
+      </c>
+      <c r="O83" t="s">
         <v>42</v>
       </c>
-      <c r="M83" t="s">
+      <c r="P83" t="s">
         <v>45</v>
       </c>
-      <c r="N83" t="s">
+      <c r="Q83" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
         <v>28</v>
@@ -5159,31 +5531,43 @@
         <v>63</v>
       </c>
       <c r="G84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" t="s">
         <v>37</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>63</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K84" t="s">
         <v>47</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>22</v>
       </c>
-      <c r="K84" t="s">
+      <c r="M84" t="s">
         <v>34</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
+        <v>99</v>
+      </c>
+      <c r="O84" t="s">
         <v>20</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
         <v>49</v>
       </c>
-      <c r="N84" t="s">
+      <c r="Q84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>30</v>
@@ -5198,34 +5582,46 @@
         <v>63</v>
       </c>
       <c r="F85" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" t="s">
         <v>18</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>22</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>63</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" t="s">
         <v>140</v>
       </c>
-      <c r="J85" t="s">
+      <c r="L85" t="s">
         <v>48</v>
       </c>
-      <c r="K85" t="s">
+      <c r="M85" t="s">
         <v>48</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O85" t="s">
         <v>49</v>
       </c>
-      <c r="M85" t="s">
+      <c r="P85" t="s">
         <v>63</v>
       </c>
-      <c r="N85" t="s">
+      <c r="Q85" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>98</v>
       </c>
@@ -5245,31 +5641,43 @@
         <v>56</v>
       </c>
       <c r="G86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" t="s">
         <v>32</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>56</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" t="s">
         <v>42</v>
       </c>
-      <c r="J86" t="s">
+      <c r="L86" t="s">
         <v>17</v>
       </c>
-      <c r="K86" t="s">
+      <c r="M86" t="s">
         <v>17</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
+        <v>17</v>
+      </c>
+      <c r="O86" t="s">
         <v>76</v>
       </c>
-      <c r="M86" t="s">
+      <c r="P86" t="s">
         <v>76</v>
       </c>
-      <c r="N86" t="s">
+      <c r="Q86" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
         <v>28</v>
@@ -5287,31 +5695,43 @@
         <v>56</v>
       </c>
       <c r="G87" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" t="s">
         <v>17</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>56</v>
       </c>
-      <c r="I87" t="s">
-        <v>42</v>
-      </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K87" t="s">
         <v>42</v>
       </c>
       <c r="L87" t="s">
+        <v>49</v>
+      </c>
+      <c r="M87" t="s">
+        <v>42</v>
+      </c>
+      <c r="N87" t="s">
+        <v>42</v>
+      </c>
+      <c r="O87" t="s">
         <v>76</v>
       </c>
-      <c r="M87" t="s">
+      <c r="P87" t="s">
         <v>56</v>
       </c>
-      <c r="N87" t="s">
+      <c r="Q87" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
         <v>30</v>
@@ -5329,31 +5749,43 @@
         <v>56</v>
       </c>
       <c r="G88" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" t="s">
         <v>17</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>56</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
+        <v>56</v>
+      </c>
+      <c r="K88" t="s">
         <v>42</v>
       </c>
-      <c r="J88" t="s">
+      <c r="L88" t="s">
         <v>49</v>
       </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>49</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
+        <v>49</v>
+      </c>
+      <c r="O88" t="s">
         <v>76</v>
       </c>
-      <c r="M88" t="s">
+      <c r="P88" t="s">
         <v>56</v>
       </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>101</v>
       </c>
@@ -5367,65 +5799,78 @@
         <v>257</v>
       </c>
       <c r="F89" t="s">
+        <v>291</v>
+      </c>
+      <c r="G89" t="s">
         <v>226</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>230</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>233</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="J89" t="s">
+        <v>293</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="L89" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="N89" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="P89" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="N89" s="3" t="s">
+      <c r="Q89" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="O89" t="s">
+      <c r="R89" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="S89" t="s">
         <v>274</v>
       </c>
-      <c r="P89" t="s">
+      <c r="T89" t="s">
         <v>278</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="U89" t="s">
         <v>281</v>
       </c>
+      <c r="V89" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="N32:P32"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="C62:Q62"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:R60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results_edge.xlsx
+++ b/results_edge.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94EDE8B-931B-E048-B72C-8F0639F3B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB9B33-1A0F-7645-B736-D8EDEDA6A185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" activeTab="2" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="381">
   <si>
     <t>Backdoor</t>
   </si>
@@ -680,9 +682,6 @@
     <t>last testes with EDGEIIot</t>
   </si>
   <si>
-    <t>(F!-score)</t>
-  </si>
-  <si>
     <t>98.07%</t>
   </si>
   <si>
@@ -740,9 +739,6 @@
     <t>90.62%</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
     <t>94.82%</t>
   </si>
   <si>
@@ -767,9 +763,6 @@
     <t>80.67%</t>
   </si>
   <si>
-    <t>0.34</t>
-  </si>
-  <si>
     <t>94.71%</t>
   </si>
   <si>
@@ -791,9 +784,6 @@
     <t>92.87%</t>
   </si>
   <si>
-    <t>0.40</t>
-  </si>
-  <si>
     <t>98.41%</t>
   </si>
   <si>
@@ -941,12 +931,6 @@
     <t>92.59%</t>
   </si>
   <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
     <t>93.87%</t>
   </si>
   <si>
@@ -957,13 +941,257 @@
   </si>
   <si>
     <t>80.95%</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Backdoor attack</t>
+  </si>
+  <si>
+    <t>DDoS_HTTP attack</t>
+  </si>
+  <si>
+    <t>DDoS_ICMP attack</t>
+  </si>
+  <si>
+    <t>DDoS_TCP attack</t>
+  </si>
+  <si>
+    <t>DDoS_UDP attack</t>
+  </si>
+  <si>
+    <t>Fingerprinting attack</t>
+  </si>
+  <si>
+    <t>MITM attack</t>
+  </si>
+  <si>
+    <t>Password attack</t>
+  </si>
+  <si>
+    <t>Port_Scanning attack</t>
+  </si>
+  <si>
+    <t>Ransomware attack</t>
+  </si>
+  <si>
+    <t>SQL_injection attack</t>
+  </si>
+  <si>
+    <t>Uploading attack</t>
+  </si>
+  <si>
+    <t>Vulnerability_scanner attack</t>
+  </si>
+  <si>
+    <t>XSS attack</t>
+  </si>
+  <si>
+    <t>IoT traffic</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Balanced accuracy</t>
+  </si>
+  <si>
+    <t>Smote</t>
+  </si>
+  <si>
+    <t>SmoteNC</t>
+  </si>
+  <si>
+    <t>RealTabformer</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>85.40%</t>
+  </si>
+  <si>
+    <t>95.90%</t>
+  </si>
+  <si>
+    <t>Normal                   1091222</t>
+  </si>
+  <si>
+    <t>DDoS_UDP                   96966</t>
+  </si>
+  <si>
+    <t>DDoS_ICMP                  54438</t>
+  </si>
+  <si>
+    <t>SQL_injection              40755</t>
+  </si>
+  <si>
+    <t>Vulnerability_scanner      40086</t>
+  </si>
+  <si>
+    <t>DDoS_TCP                   40053</t>
+  </si>
+  <si>
+    <t>Password                   39825</t>
+  </si>
+  <si>
+    <t>DDoS_HTTP                  38916</t>
+  </si>
+  <si>
+    <t>Uploading                  29534</t>
+  </si>
+  <si>
+    <t>Backdoor                   19244</t>
+  </si>
+  <si>
+    <t>Port_Scanning              15915</t>
+  </si>
+  <si>
+    <t>XSS                        12031</t>
+  </si>
+  <si>
+    <t>Ransomware                  7763</t>
+  </si>
+  <si>
+    <t>Fingerprinting               707</t>
+  </si>
+  <si>
+    <t>MITM                         282</t>
+  </si>
+  <si>
+    <t>Name: Attack_type, dtype: int64</t>
+  </si>
+  <si>
+    <t>Normal                   272776</t>
+  </si>
+  <si>
+    <t>DDoS_UDP                  24601</t>
+  </si>
+  <si>
+    <t>DDoS_ICMP                 13501</t>
+  </si>
+  <si>
+    <t>Password                  10108</t>
+  </si>
+  <si>
+    <t>SQL_injection             10071</t>
+  </si>
+  <si>
+    <t>DDoS_TCP                  10009</t>
+  </si>
+  <si>
+    <t>Vulnerability_scanner      9940</t>
+  </si>
+  <si>
+    <t>DDoS_HTTP                  9628</t>
+  </si>
+  <si>
+    <t>Uploading                  7273</t>
+  </si>
+  <si>
+    <t>Backdoor                   4782</t>
+  </si>
+  <si>
+    <t>Port_Scanning              4062</t>
+  </si>
+  <si>
+    <t>XSS                        3035</t>
+  </si>
+  <si>
+    <t>Ransomware                 1926</t>
+  </si>
+  <si>
+    <t>Fingerprinting              146</t>
+  </si>
+  <si>
+    <t>MITM                         76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDoS_UDP                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDoS_ICMP                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL_injection              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulnerability_scanner      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDoS_TCP                   </t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDoS_HTTP                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uploading                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backdoor                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port_Scanning              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSS                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ransomware                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fingerprinting               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MITM                        </t>
+  </si>
+  <si>
+    <t>XGBOOST smote</t>
+  </si>
+  <si>
+    <t>autor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,6 +1213,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -994,7 +1249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1002,11 +1257,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1016,19 +1457,88 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
-  <dimension ref="A1:AC89"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="68" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V89" sqref="V89"/>
+    <sheetView topLeftCell="H55" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P88" sqref="P62:P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,68 +1861,70 @@
     <col min="1" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="32.1640625" customWidth="1"/>
     <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
       <c r="X1" t="s">
         <v>16</v>
       </c>
       <c r="Y1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Z1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AA1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AB1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AC1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
@@ -2654,16 +3166,16 @@
         <v>26</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z19" t="s">
         <v>258</v>
       </c>
-      <c r="Z19" t="s">
-        <v>262</v>
-      </c>
       <c r="AA19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AB19" t="s">
         <v>157</v>
@@ -2722,22 +3234,22 @@
         <v>27</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Z20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AB20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AC20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -2781,16 +3293,16 @@
         <v>28</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z21" t="s">
         <v>258</v>
       </c>
-      <c r="Z21" t="s">
-        <v>262</v>
-      </c>
       <c r="AA21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AB21" t="s">
         <v>157</v>
@@ -2840,22 +3352,22 @@
         <v>30</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Z22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AA22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AB22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AC22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -2895,31 +3407,31 @@
       <c r="M23" t="s">
         <v>73</v>
       </c>
-      <c r="V23" s="7"/>
+      <c r="V23" s="45"/>
       <c r="W23" t="s">
         <v>101</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AA23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AB23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AC23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
@@ -2946,10 +3458,10 @@
       <c r="I24" t="s">
         <v>37</v>
       </c>
-      <c r="V24" s="7"/>
+      <c r="V24" s="45"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="45"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -2974,10 +3486,10 @@
       <c r="I25" t="s">
         <v>140</v>
       </c>
-      <c r="V25" s="7"/>
+      <c r="V25" s="45"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="45"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -3002,10 +3514,10 @@
       <c r="I26" t="s">
         <v>57</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="45"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="45" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
@@ -3032,10 +3544,10 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="7"/>
+      <c r="V27" s="45"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="45"/>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -3060,10 +3572,10 @@
       <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="V28" s="7"/>
+      <c r="V28" s="45"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="45"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -3116,27 +3628,27 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6" t="s">
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6" t="s">
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -3787,7 +4299,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B50" t="s">
@@ -3834,7 +4346,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="45"/>
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -3879,7 +4391,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="45"/>
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -3924,7 +4436,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="45" t="s">
         <v>155</v>
       </c>
       <c r="B53" t="s">
@@ -3971,7 +4483,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="45"/>
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -4016,7 +4528,7 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="45"/>
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -4108,1110 +4620,1154 @@
       <c r="A60" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6" t="s">
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6" t="s">
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O61" t="s">
         <v>7</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
-      <c r="C62" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0.96</v>
+      </c>
+      <c r="D62">
+        <v>0.96</v>
+      </c>
+      <c r="E62">
+        <v>0.96</v>
+      </c>
+      <c r="F62">
+        <v>0.96</v>
+      </c>
+      <c r="G62">
+        <v>0.97</v>
+      </c>
+      <c r="H62">
+        <v>0.96</v>
+      </c>
+      <c r="I62">
+        <v>0.97</v>
+      </c>
+      <c r="J62">
+        <v>0.97</v>
+      </c>
+      <c r="K62">
+        <v>0.96</v>
+      </c>
+      <c r="L62">
+        <v>0.96</v>
+      </c>
+      <c r="M62">
+        <v>0.97</v>
+      </c>
+      <c r="N62">
+        <v>0.97</v>
+      </c>
+      <c r="O62">
+        <v>0.97</v>
+      </c>
+      <c r="P62">
+        <v>0.96</v>
+      </c>
+      <c r="Q62">
+        <v>0.97</v>
+      </c>
+      <c r="R62">
+        <v>0.97</v>
+      </c>
+      <c r="S62">
+        <v>0.97</v>
+      </c>
+      <c r="T62">
+        <v>0.96</v>
+      </c>
+      <c r="U62">
+        <v>0.96</v>
+      </c>
+      <c r="V62">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" t="s">
-        <v>17</v>
-      </c>
-      <c r="M63" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" t="s">
-        <v>32</v>
-      </c>
-      <c r="S63" t="s">
-        <v>32</v>
-      </c>
-      <c r="T63" t="s">
-        <v>17</v>
-      </c>
-      <c r="U63" t="s">
-        <v>17</v>
-      </c>
-      <c r="V63" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0.92</v>
+      </c>
+      <c r="D63">
+        <v>0.87</v>
+      </c>
+      <c r="E63">
+        <v>0.91</v>
+      </c>
+      <c r="F63">
+        <v>0.92</v>
+      </c>
+      <c r="G63">
+        <v>0.92</v>
+      </c>
+      <c r="H63">
+        <v>0.72</v>
+      </c>
+      <c r="I63">
+        <v>0.92</v>
+      </c>
+      <c r="J63">
+        <v>0.92</v>
+      </c>
+      <c r="K63">
+        <v>0.83</v>
+      </c>
+      <c r="L63">
+        <v>0.74</v>
+      </c>
+      <c r="M63">
+        <v>0.83</v>
+      </c>
+      <c r="N63">
+        <v>0.83</v>
+      </c>
+      <c r="O63">
+        <v>0.95</v>
+      </c>
+      <c r="P63">
+        <v>0.95</v>
+      </c>
+      <c r="Q63">
+        <v>0.95</v>
+      </c>
+      <c r="R63">
+        <v>0.95</v>
+      </c>
+      <c r="S63">
+        <v>0.83</v>
+      </c>
+      <c r="T63">
+        <v>0.74</v>
+      </c>
+      <c r="U63">
+        <v>0.74</v>
+      </c>
+      <c r="V63">
+        <v>0.74</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" t="s">
-        <v>48</v>
-      </c>
-      <c r="M64" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" t="s">
-        <v>42</v>
-      </c>
-      <c r="P64" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>42</v>
-      </c>
-      <c r="R64" t="s">
-        <v>42</v>
-      </c>
-      <c r="S64" t="s">
-        <v>25</v>
-      </c>
-      <c r="T64" t="s">
-        <v>48</v>
-      </c>
-      <c r="U64" t="s">
-        <v>48</v>
-      </c>
-      <c r="V64" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" t="s">
-        <v>23</v>
-      </c>
-      <c r="P65" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" t="s">
-        <v>23</v>
-      </c>
-      <c r="U65" t="s">
-        <v>23</v>
-      </c>
-      <c r="V65" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.9</v>
+      </c>
+      <c r="L65">
+        <v>0.73</v>
+      </c>
+      <c r="M65">
+        <v>0.9</v>
+      </c>
+      <c r="N65">
+        <v>0.9</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0.9</v>
+      </c>
+      <c r="T65">
+        <v>0.74</v>
+      </c>
+      <c r="U65">
+        <v>0.74</v>
+      </c>
+      <c r="V65">
+        <v>0.74</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" t="s">
-        <v>45</v>
-      </c>
-      <c r="L66" t="s">
-        <v>34</v>
-      </c>
-      <c r="M66" t="s">
-        <v>45</v>
-      </c>
-      <c r="N66" t="s">
-        <v>45</v>
-      </c>
-      <c r="O66" t="s">
-        <v>23</v>
-      </c>
-      <c r="P66" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" t="s">
-        <v>45</v>
-      </c>
-      <c r="T66" t="s">
-        <v>48</v>
-      </c>
-      <c r="U66" t="s">
-        <v>48</v>
-      </c>
-      <c r="V66" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" t="s">
-        <v>23</v>
-      </c>
-      <c r="O67" t="s">
-        <v>23</v>
-      </c>
-      <c r="P67" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" t="s">
-        <v>23</v>
-      </c>
-      <c r="U67" t="s">
-        <v>23</v>
-      </c>
-      <c r="V67" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0.66</v>
+      </c>
+      <c r="D67">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E67">
+        <v>0.66</v>
+      </c>
+      <c r="F67">
+        <v>0.65</v>
+      </c>
+      <c r="G67">
+        <v>0.72</v>
+      </c>
+      <c r="H67">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I67">
+        <v>0.71</v>
+      </c>
+      <c r="J67">
+        <v>0.72</v>
+      </c>
+      <c r="K67">
+        <v>0.59</v>
+      </c>
+      <c r="L67">
+        <v>0.39</v>
+      </c>
+      <c r="M67">
+        <v>0.13</v>
+      </c>
+      <c r="N67">
+        <v>0.61</v>
+      </c>
+      <c r="O67">
+        <v>0.8</v>
+      </c>
+      <c r="P67">
+        <v>0.4</v>
+      </c>
+      <c r="Q67">
+        <v>0.81</v>
+      </c>
+      <c r="R67">
+        <v>0.79</v>
+      </c>
+      <c r="S67">
+        <v>0.59</v>
+      </c>
+      <c r="T67">
+        <v>0.39</v>
+      </c>
+      <c r="U67">
+        <v>0.39</v>
+      </c>
+      <c r="V67">
+        <v>0.39</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I68" t="s">
-        <v>61</v>
-      </c>
-      <c r="J68" t="s">
-        <v>166</v>
-      </c>
-      <c r="K68" t="s">
-        <v>64</v>
-      </c>
-      <c r="L68" t="s">
-        <v>192</v>
-      </c>
-      <c r="M68" t="s">
-        <v>161</v>
-      </c>
-      <c r="N68" t="s">
-        <v>39</v>
-      </c>
-      <c r="O68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>22</v>
-      </c>
-      <c r="R68" t="s">
-        <v>57</v>
-      </c>
-      <c r="S68" t="s">
-        <v>64</v>
-      </c>
-      <c r="T68" t="s">
-        <v>192</v>
-      </c>
-      <c r="U68" t="s">
-        <v>192</v>
-      </c>
-      <c r="V68" t="s">
-        <v>192</v>
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.99</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0.99</v>
+      </c>
+      <c r="L68">
+        <v>0.85</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0.91</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0.99</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" t="s">
-        <v>76</v>
-      </c>
-      <c r="L69" t="s">
-        <v>37</v>
-      </c>
-      <c r="M69" t="s">
-        <v>23</v>
-      </c>
-      <c r="N69" t="s">
-        <v>63</v>
-      </c>
-      <c r="O69" t="s">
-        <v>23</v>
-      </c>
-      <c r="P69" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" t="s">
-        <v>76</v>
-      </c>
-      <c r="U69" t="s">
-        <v>23</v>
-      </c>
-      <c r="V69" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" t="s">
-        <v>23</v>
-      </c>
-      <c r="M70" t="s">
-        <v>23</v>
-      </c>
-      <c r="N70" t="s">
-        <v>23</v>
-      </c>
-      <c r="O70" t="s">
-        <v>23</v>
-      </c>
-      <c r="P70" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" t="s">
-        <v>23</v>
-      </c>
-      <c r="V70" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0.82</v>
+      </c>
+      <c r="D70">
+        <v>0.78</v>
+      </c>
+      <c r="E70">
+        <v>0.8</v>
+      </c>
+      <c r="F70">
+        <v>0.8</v>
+      </c>
+      <c r="G70">
+        <v>0.82</v>
+      </c>
+      <c r="H70">
+        <v>0.61</v>
+      </c>
+      <c r="I70">
+        <v>0.8</v>
+      </c>
+      <c r="J70">
+        <v>0.79</v>
+      </c>
+      <c r="K70">
+        <v>0.41</v>
+      </c>
+      <c r="L70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O70">
+        <v>0.84</v>
+      </c>
+      <c r="P70">
+        <v>0.84</v>
+      </c>
+      <c r="Q70">
+        <v>0.85</v>
+      </c>
+      <c r="R70">
+        <v>0.84</v>
+      </c>
+      <c r="S70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T70">
+        <v>0.6</v>
+      </c>
+      <c r="U70">
+        <v>0.6</v>
+      </c>
+      <c r="V70">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" t="s">
-        <v>39</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" t="s">
-        <v>234</v>
-      </c>
-      <c r="L71" t="s">
-        <v>62</v>
-      </c>
-      <c r="M71" t="s">
-        <v>62</v>
-      </c>
-      <c r="N71" t="s">
-        <v>62</v>
-      </c>
-      <c r="O71" t="s">
-        <v>75</v>
-      </c>
-      <c r="P71" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>37</v>
-      </c>
-      <c r="R71" t="s">
-        <v>75</v>
-      </c>
-      <c r="S71" t="s">
-        <v>62</v>
-      </c>
-      <c r="T71" t="s">
-        <v>174</v>
-      </c>
-      <c r="U71" t="s">
-        <v>174</v>
-      </c>
-      <c r="V71" t="s">
-        <v>112</v>
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>0.96</v>
+      </c>
+      <c r="D71">
+        <v>0.91</v>
+      </c>
+      <c r="E71">
+        <v>0.96</v>
+      </c>
+      <c r="F71">
+        <v>0.96</v>
+      </c>
+      <c r="G71">
+        <v>0.98</v>
+      </c>
+      <c r="H71">
+        <v>0.93</v>
+      </c>
+      <c r="I71">
+        <v>0.98</v>
+      </c>
+      <c r="J71">
+        <v>0.98</v>
+      </c>
+      <c r="K71">
+        <v>0.67</v>
+      </c>
+      <c r="L71">
+        <v>0.65</v>
+      </c>
+      <c r="M71">
+        <v>0.67</v>
+      </c>
+      <c r="N71">
+        <v>0.66</v>
+      </c>
+      <c r="O71">
+        <v>0.98</v>
+      </c>
+      <c r="P71">
+        <v>0.97</v>
+      </c>
+      <c r="Q71">
+        <v>0.98</v>
+      </c>
+      <c r="R71">
+        <v>0.98</v>
+      </c>
+      <c r="S71">
+        <v>0.67</v>
+      </c>
+      <c r="T71">
+        <v>0.65</v>
+      </c>
+      <c r="U71">
+        <v>0.65</v>
+      </c>
+      <c r="V71">
+        <v>0.65</v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K72" t="s">
-        <v>136</v>
-      </c>
-      <c r="L72" t="s">
-        <v>84</v>
-      </c>
-      <c r="M72" t="s">
-        <v>136</v>
-      </c>
-      <c r="N72" t="s">
-        <v>50</v>
-      </c>
-      <c r="O72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S72" t="s">
-        <v>136</v>
-      </c>
-      <c r="T72" t="s">
-        <v>84</v>
-      </c>
-      <c r="U72" t="s">
-        <v>84</v>
-      </c>
-      <c r="V72" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0.92</v>
+      </c>
+      <c r="D72">
+        <v>0.9</v>
+      </c>
+      <c r="E72">
+        <v>0.92</v>
+      </c>
+      <c r="F72">
+        <v>0.92</v>
+      </c>
+      <c r="G72">
+        <v>0.93</v>
+      </c>
+      <c r="H72">
+        <v>0.92</v>
+      </c>
+      <c r="I72">
+        <v>0.93</v>
+      </c>
+      <c r="J72">
+        <v>0.93</v>
+      </c>
+      <c r="K72">
+        <v>0.92</v>
+      </c>
+      <c r="L72">
+        <v>0.94</v>
+      </c>
+      <c r="M72">
+        <v>0.94</v>
+      </c>
+      <c r="N72">
+        <v>0.94</v>
+      </c>
+      <c r="O72">
+        <v>0.94</v>
+      </c>
+      <c r="P72">
+        <v>0.93</v>
+      </c>
+      <c r="Q72">
+        <v>0.94</v>
+      </c>
+      <c r="R72">
+        <v>0.94</v>
+      </c>
+      <c r="S72">
+        <v>0.94</v>
+      </c>
+      <c r="T72">
+        <v>0.94</v>
+      </c>
+      <c r="U72">
+        <v>0.94</v>
+      </c>
+      <c r="V72">
+        <v>0.94</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" t="s">
-        <v>49</v>
-      </c>
-      <c r="M73" t="s">
-        <v>49</v>
-      </c>
-      <c r="N73" t="s">
-        <v>49</v>
-      </c>
-      <c r="O73" t="s">
-        <v>49</v>
-      </c>
-      <c r="P73" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>49</v>
-      </c>
-      <c r="R73" t="s">
-        <v>49</v>
-      </c>
-      <c r="S73" t="s">
-        <v>49</v>
-      </c>
-      <c r="T73" t="s">
-        <v>49</v>
-      </c>
-      <c r="U73" t="s">
-        <v>49</v>
-      </c>
-      <c r="V73" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>0.83</v>
+      </c>
+      <c r="D73">
+        <v>0.8</v>
+      </c>
+      <c r="E73">
+        <v>0.83</v>
+      </c>
+      <c r="F73">
+        <v>0.83</v>
+      </c>
+      <c r="G73">
+        <v>0.83</v>
+      </c>
+      <c r="H73">
+        <v>0.67</v>
+      </c>
+      <c r="I73">
+        <v>0.82</v>
+      </c>
+      <c r="J73">
+        <v>0.82</v>
+      </c>
+      <c r="K73">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L73">
+        <v>0.6</v>
+      </c>
+      <c r="M73">
+        <v>0.6</v>
+      </c>
+      <c r="N73">
+        <v>0.61</v>
+      </c>
+      <c r="O73">
+        <v>0.85</v>
+      </c>
+      <c r="P73">
+        <v>0.85</v>
+      </c>
+      <c r="Q73">
+        <v>0.85</v>
+      </c>
+      <c r="R73">
+        <v>0.85</v>
+      </c>
+      <c r="S73">
+        <v>0.61</v>
+      </c>
+      <c r="T73">
+        <v>0.31</v>
+      </c>
+      <c r="U73">
+        <v>0.36</v>
+      </c>
+      <c r="V73">
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" t="s">
-        <v>118</v>
-      </c>
-      <c r="L74" t="s">
-        <v>174</v>
-      </c>
-      <c r="M74" t="s">
-        <v>174</v>
-      </c>
-      <c r="N74" t="s">
-        <v>39</v>
-      </c>
-      <c r="O74" t="s">
-        <v>37</v>
-      </c>
-      <c r="P74" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>37</v>
-      </c>
-      <c r="R74" t="s">
-        <v>37</v>
-      </c>
-      <c r="S74" t="s">
-        <v>39</v>
-      </c>
-      <c r="T74" t="s">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s">
-        <v>124</v>
-      </c>
-      <c r="V74" t="s">
-        <v>301</v>
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>0.8</v>
+      </c>
+      <c r="D74">
+        <v>0.77</v>
+      </c>
+      <c r="E74">
+        <v>0.78</v>
+      </c>
+      <c r="F74">
+        <v>0.78</v>
+      </c>
+      <c r="G74">
+        <v>0.81</v>
+      </c>
+      <c r="H74">
+        <v>0.62</v>
+      </c>
+      <c r="I74">
+        <v>0.79</v>
+      </c>
+      <c r="J74">
+        <v>0.79</v>
+      </c>
+      <c r="K74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M74">
+        <v>0.52</v>
+      </c>
+      <c r="N74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O74">
+        <v>0.84</v>
+      </c>
+      <c r="P74">
+        <v>0.84</v>
+      </c>
+      <c r="Q74">
+        <v>0.84</v>
+      </c>
+      <c r="R74">
+        <v>0.84</v>
+      </c>
+      <c r="S74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V74">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" t="s">
-        <v>38</v>
-      </c>
-      <c r="I75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" t="s">
-        <v>85</v>
-      </c>
-      <c r="L75" t="s">
-        <v>85</v>
-      </c>
-      <c r="M75" t="s">
-        <v>40</v>
-      </c>
-      <c r="N75" t="s">
-        <v>85</v>
-      </c>
-      <c r="O75" t="s">
-        <v>75</v>
-      </c>
-      <c r="P75" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>75</v>
-      </c>
-      <c r="R75" t="s">
-        <v>75</v>
-      </c>
-      <c r="S75" t="s">
-        <v>85</v>
-      </c>
-      <c r="T75" t="s">
-        <v>85</v>
-      </c>
-      <c r="U75" t="s">
-        <v>85</v>
-      </c>
-      <c r="V75" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>0.96</v>
+      </c>
+      <c r="D75">
+        <v>0.95</v>
+      </c>
+      <c r="E75">
+        <v>0.96</v>
+      </c>
+      <c r="F75">
+        <v>0.96</v>
+      </c>
+      <c r="G75">
+        <v>0.97</v>
+      </c>
+      <c r="H75">
+        <v>0.94</v>
+      </c>
+      <c r="I75">
+        <v>0.96</v>
+      </c>
+      <c r="J75">
+        <v>0.96</v>
+      </c>
+      <c r="K75">
+        <v>0.9</v>
+      </c>
+      <c r="L75">
+        <v>0.89</v>
+      </c>
+      <c r="M75">
+        <v>0.89</v>
+      </c>
+      <c r="N75">
+        <v>0.9</v>
+      </c>
+      <c r="O75">
+        <v>0.98</v>
+      </c>
+      <c r="P75">
+        <v>0.98</v>
+      </c>
+      <c r="Q75">
+        <v>0.98</v>
+      </c>
+      <c r="R75">
+        <v>0.98</v>
+      </c>
+      <c r="S75">
+        <v>0.91</v>
+      </c>
+      <c r="T75">
+        <v>0.91</v>
+      </c>
+      <c r="U75">
+        <v>0.9</v>
+      </c>
+      <c r="V75">
+        <v>0.91</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" t="s">
-        <v>49</v>
-      </c>
-      <c r="I76" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" t="s">
-        <v>45</v>
-      </c>
-      <c r="L76" t="s">
-        <v>100</v>
-      </c>
-      <c r="M76" t="s">
-        <v>100</v>
-      </c>
-      <c r="N76" t="s">
-        <v>45</v>
-      </c>
-      <c r="O76" t="s">
-        <v>56</v>
-      </c>
-      <c r="P76" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>56</v>
-      </c>
-      <c r="R76" t="s">
-        <v>56</v>
-      </c>
-      <c r="S76" t="s">
-        <v>63</v>
-      </c>
-      <c r="T76" t="s">
-        <v>63</v>
-      </c>
-      <c r="U76" t="s">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" t="s">
-        <v>96</v>
-      </c>
-      <c r="I77" t="s">
-        <v>57</v>
-      </c>
-      <c r="J77" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77" t="s">
-        <v>192</v>
-      </c>
-      <c r="L77" t="s">
-        <v>35</v>
-      </c>
-      <c r="M77" t="s">
-        <v>243</v>
-      </c>
-      <c r="N77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O77" t="s">
-        <v>190</v>
-      </c>
-      <c r="P77" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>190</v>
-      </c>
-      <c r="R77" t="s">
-        <v>43</v>
-      </c>
-      <c r="S77" t="s">
-        <v>179</v>
-      </c>
-      <c r="T77" t="s">
-        <v>66</v>
-      </c>
-      <c r="U77" t="s">
-        <v>173</v>
-      </c>
-      <c r="V77" t="s">
-        <v>302</v>
+      <c r="C76">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>0.72</v>
+      </c>
+      <c r="E76">
+        <v>0.8</v>
+      </c>
+      <c r="F76">
+        <v>0.8</v>
+      </c>
+      <c r="G76">
+        <v>0.79</v>
+      </c>
+      <c r="H76">
+        <v>0.53</v>
+      </c>
+      <c r="I76">
+        <v>0.79</v>
+      </c>
+      <c r="J76">
+        <v>0.79</v>
+      </c>
+      <c r="K76">
+        <v>0.39</v>
+      </c>
+      <c r="L76">
+        <v>0.45</v>
+      </c>
+      <c r="M76">
+        <v>0.34</v>
+      </c>
+      <c r="N76">
+        <v>0.4</v>
+      </c>
+      <c r="O76">
+        <v>0.87</v>
+      </c>
+      <c r="P76">
+        <v>0.85</v>
+      </c>
+      <c r="Q76">
+        <v>0.87</v>
+      </c>
+      <c r="R76">
+        <v>0.86</v>
+      </c>
+      <c r="S76">
+        <v>0.44</v>
+      </c>
+      <c r="T76">
+        <v>0.51</v>
+      </c>
+      <c r="U76">
+        <v>0.46</v>
+      </c>
+      <c r="V76">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" t="s">
+        <v>223</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
+      </c>
+      <c r="I78" t="s">
+        <v>230</v>
+      </c>
+      <c r="J78" t="s">
+        <v>288</v>
+      </c>
+      <c r="K78" t="s">
+        <v>233</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M78" t="s">
+        <v>241</v>
+      </c>
+      <c r="N78" t="s">
+        <v>290</v>
+      </c>
+      <c r="O78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P78" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R78" t="s">
+        <v>294</v>
+      </c>
+      <c r="S78" t="s">
+        <v>268</v>
+      </c>
+      <c r="T78" t="s">
+        <v>271</v>
+      </c>
+      <c r="U78" t="s">
+        <v>275</v>
+      </c>
+      <c r="V78" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
         <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="G79" t="s">
         <v>224</v>
@@ -5220,140 +5776,140 @@
         <v>227</v>
       </c>
       <c r="I79" t="s">
+        <v>230</v>
+      </c>
+      <c r="J79" t="s">
         <v>231</v>
       </c>
-      <c r="J79" t="s">
-        <v>292</v>
-      </c>
       <c r="K79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="R79" t="s">
+        <v>245</v>
+      </c>
+      <c r="S79" t="s">
+        <v>238</v>
+      </c>
+      <c r="T79" t="s">
+        <v>272</v>
+      </c>
+      <c r="U79" t="s">
+        <v>131</v>
+      </c>
+      <c r="V79" t="s">
         <v>298</v>
-      </c>
-      <c r="S79" t="s">
-        <v>272</v>
-      </c>
-      <c r="T79" t="s">
-        <v>275</v>
-      </c>
-      <c r="U79" t="s">
-        <v>279</v>
-      </c>
-      <c r="V79" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" t="s">
+        <v>254</v>
+      </c>
+      <c r="G80" t="s">
+        <v>223</v>
+      </c>
+      <c r="H80" t="s">
+        <v>226</v>
+      </c>
+      <c r="I80" t="s">
+        <v>230</v>
+      </c>
+      <c r="J80" t="s">
+        <v>288</v>
+      </c>
+      <c r="K80" t="s">
+        <v>233</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M80" t="s">
+        <v>241</v>
+      </c>
+      <c r="N80" t="s">
+        <v>290</v>
+      </c>
+      <c r="O80" t="s">
+        <v>245</v>
+      </c>
+      <c r="P80" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R80" t="s">
+        <v>294</v>
+      </c>
+      <c r="S80" t="s">
+        <v>269</v>
+      </c>
+      <c r="T80" t="s">
+        <v>271</v>
+      </c>
+      <c r="U80" t="s">
+        <v>275</v>
+      </c>
+      <c r="V80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
         <v>219</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" t="s">
         <v>223</v>
       </c>
-      <c r="F80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G80" t="s">
-        <v>225</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>228</v>
-      </c>
-      <c r="I80" t="s">
-        <v>231</v>
-      </c>
-      <c r="J80" t="s">
-        <v>232</v>
-      </c>
-      <c r="K80" t="s">
-        <v>236</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="M80" t="s">
-        <v>245</v>
-      </c>
-      <c r="N80" t="s">
-        <v>295</v>
-      </c>
-      <c r="O80" t="s">
-        <v>249</v>
-      </c>
-      <c r="P80" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="R80" t="s">
-        <v>248</v>
-      </c>
-      <c r="S80" t="s">
-        <v>240</v>
-      </c>
-      <c r="T80" t="s">
-        <v>276</v>
-      </c>
-      <c r="U80" t="s">
-        <v>131</v>
-      </c>
-      <c r="V80" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" t="s">
-        <v>215</v>
-      </c>
-      <c r="D81" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" t="s">
-        <v>223</v>
-      </c>
-      <c r="F81" t="s">
-        <v>258</v>
-      </c>
-      <c r="G81" t="s">
-        <v>224</v>
-      </c>
-      <c r="H81" t="s">
-        <v>227</v>
       </c>
       <c r="I81" t="s">
         <v>231</v>
       </c>
       <c r="J81" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K81" t="s">
         <v>235</v>
@@ -5362,167 +5918,156 @@
         <v>239</v>
       </c>
       <c r="M81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N81" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>92</v>
       </c>
       <c r="R81" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S81" t="s">
+        <v>270</v>
+      </c>
+      <c r="T81" t="s">
         <v>273</v>
       </c>
-      <c r="T81" t="s">
-        <v>275</v>
-      </c>
       <c r="U81" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V81" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="M82" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="N82" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="O82" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>42</v>
       </c>
       <c r="R82" t="s">
-        <v>299</v>
-      </c>
-      <c r="S82" t="s">
-        <v>274</v>
-      </c>
-      <c r="T82" t="s">
-        <v>277</v>
-      </c>
-      <c r="U82" t="s">
-        <v>280</v>
-      </c>
-      <c r="V82" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
         <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I83" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>140</v>
+        <v>47</v>
+      </c>
+      <c r="L83" t="s">
+        <v>22</v>
       </c>
       <c r="M83" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="N83" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="O83" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P83" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q83" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="R83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
         <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E84" t="s">
         <v>63</v>
@@ -5531,10 +6076,10 @@
         <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I84" t="s">
         <v>63</v>
@@ -5543,96 +6088,96 @@
         <v>63</v>
       </c>
       <c r="K84" t="s">
+        <v>140</v>
+      </c>
+      <c r="L84" t="s">
+        <v>48</v>
+      </c>
+      <c r="M84" t="s">
+        <v>48</v>
+      </c>
+      <c r="N84" t="s">
         <v>47</v>
       </c>
-      <c r="L84" t="s">
-        <v>22</v>
-      </c>
-      <c r="M84" t="s">
-        <v>34</v>
-      </c>
-      <c r="N84" t="s">
-        <v>99</v>
-      </c>
       <c r="O84" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P84" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q84" t="s">
         <v>49</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>20</v>
       </c>
       <c r="R84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J85" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K85" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="L85" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N85" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="O85" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="P85" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q85" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="R85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
         <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
         <v>56</v>
@@ -5644,7 +6189,7 @@
         <v>56</v>
       </c>
       <c r="H86" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s">
         <v>56</v>
@@ -5656,37 +6201,37 @@
         <v>42</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M86" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N86" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="O86" t="s">
         <v>76</v>
       </c>
       <c r="P86" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="Q86" t="s">
         <v>76</v>
       </c>
       <c r="R86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
         <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E87" t="s">
         <v>56</v>
@@ -5713,10 +6258,10 @@
         <v>49</v>
       </c>
       <c r="M87" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N87" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O87" t="s">
         <v>76</v>
@@ -5731,147 +6276,4418 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88" t="s">
+        <v>287</v>
+      </c>
+      <c r="G88" t="s">
+        <v>225</v>
+      </c>
+      <c r="H88" t="s">
+        <v>229</v>
+      </c>
+      <c r="I88" t="s">
+        <v>232</v>
+      </c>
+      <c r="J88" t="s">
+        <v>289</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="S88" t="s">
+        <v>270</v>
+      </c>
+      <c r="T88" t="s">
+        <v>274</v>
+      </c>
+      <c r="U88" t="s">
+        <v>277</v>
+      </c>
+      <c r="V88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" ht="317" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC91" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD91" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG91" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH91" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ91" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK91" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL91" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM91" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN91" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="F92" s="39"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="K92" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C88" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" t="s">
-        <v>56</v>
-      </c>
-      <c r="G88" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" t="s">
-        <v>56</v>
-      </c>
-      <c r="J88" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" t="s">
-        <v>42</v>
-      </c>
-      <c r="L88" t="s">
-        <v>49</v>
-      </c>
-      <c r="M88" t="s">
-        <v>49</v>
-      </c>
-      <c r="N88" t="s">
-        <v>49</v>
-      </c>
-      <c r="O88" t="s">
+      <c r="L92" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z92" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="F93" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="R93" t="s">
+        <v>367</v>
+      </c>
+      <c r="S93" t="s">
+        <v>368</v>
+      </c>
+      <c r="T93" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="6">
+        <v>11223940</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1615643</v>
+      </c>
+      <c r="F94" s="37"/>
+      <c r="G94" t="s">
+        <v>325</v>
+      </c>
+      <c r="H94" t="s">
+        <v>217</v>
+      </c>
+      <c r="I94" t="s">
+        <v>218</v>
+      </c>
+      <c r="J94" t="s">
+        <v>217</v>
+      </c>
+      <c r="K94" t="s">
+        <v>219</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P94" t="s">
+        <v>331</v>
+      </c>
+      <c r="R94" t="s">
+        <v>7</v>
+      </c>
+      <c r="S94">
+        <v>1091222</v>
+      </c>
+      <c r="T94">
+        <v>272776</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C95" s="6">
+        <v>24862</v>
+      </c>
+      <c r="D95" s="6">
+        <v>24862</v>
+      </c>
+      <c r="F95" s="37"/>
+      <c r="G95" t="s">
+        <v>326</v>
+      </c>
+      <c r="H95" t="s">
+        <v>222</v>
+      </c>
+      <c r="I95" t="s">
+        <v>222</v>
+      </c>
+      <c r="J95" t="s">
+        <v>222</v>
+      </c>
+      <c r="K95" t="s">
+        <v>222</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="P95" t="s">
+        <v>332</v>
+      </c>
+      <c r="R95" t="s">
+        <v>362</v>
+      </c>
+      <c r="S95">
+        <v>96966</v>
+      </c>
+      <c r="T95">
+        <v>24601</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="46"/>
+      <c r="B96" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="6">
+        <v>229022</v>
+      </c>
+      <c r="D96" s="6">
+        <v>49911</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="P96" t="s">
+        <v>333</v>
+      </c>
+      <c r="R96" t="s">
+        <v>363</v>
+      </c>
+      <c r="S96">
+        <v>54438</v>
+      </c>
+      <c r="T96">
+        <v>13501</v>
+      </c>
+      <c r="Z96" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
+      <c r="B97" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2914354</v>
+      </c>
+      <c r="D97" s="6">
+        <v>116436</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" t="s">
+        <v>223</v>
+      </c>
+      <c r="I97" t="s">
+        <v>224</v>
+      </c>
+      <c r="J97" t="s">
+        <v>223</v>
+      </c>
+      <c r="K97" t="s">
+        <v>223</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P97" t="s">
+        <v>334</v>
+      </c>
+      <c r="R97" t="s">
+        <v>364</v>
+      </c>
+      <c r="S97">
+        <v>40755</v>
+      </c>
+      <c r="T97">
+        <v>10071</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
+      <c r="B98" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2020120</v>
+      </c>
+      <c r="D98" s="6">
+        <v>50062</v>
+      </c>
+      <c r="F98" s="37"/>
+      <c r="G98" t="s">
+        <v>325</v>
+      </c>
+      <c r="H98" t="s">
+        <v>226</v>
+      </c>
+      <c r="I98" t="s">
+        <v>227</v>
+      </c>
+      <c r="J98" t="s">
+        <v>226</v>
+      </c>
+      <c r="K98" t="s">
+        <v>228</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="P98" t="s">
+        <v>335</v>
+      </c>
+      <c r="R98" t="s">
+        <v>365</v>
+      </c>
+      <c r="S98">
+        <v>40086</v>
+      </c>
+      <c r="T98">
+        <v>9940</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
+      <c r="B99" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="6">
+        <v>3201626</v>
+      </c>
+      <c r="D99" s="6">
+        <v>121568</v>
+      </c>
+      <c r="F99" s="37"/>
+      <c r="G99" t="s">
+        <v>326</v>
+      </c>
+      <c r="H99" t="s">
+        <v>230</v>
+      </c>
+      <c r="I99" t="s">
+        <v>230</v>
+      </c>
+      <c r="J99" t="s">
+        <v>230</v>
+      </c>
+      <c r="K99" t="s">
+        <v>231</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="P99" t="s">
+        <v>336</v>
+      </c>
+      <c r="R99" t="s">
+        <v>366</v>
+      </c>
+      <c r="S99">
+        <v>40053</v>
+      </c>
+      <c r="T99">
+        <v>10009</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="46"/>
+      <c r="B100" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1001</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1001</v>
+      </c>
+      <c r="F100" s="37"/>
+      <c r="G100" t="s">
+        <v>327</v>
+      </c>
+      <c r="H100" t="s">
+        <v>288</v>
+      </c>
+      <c r="I100" t="s">
+        <v>231</v>
+      </c>
+      <c r="J100" t="s">
+        <v>288</v>
+      </c>
+      <c r="K100" t="s">
+        <v>288</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="P100" t="s">
+        <v>337</v>
+      </c>
+      <c r="R100" t="s">
+        <v>370</v>
+      </c>
+      <c r="S100">
+        <v>39825</v>
+      </c>
+      <c r="T100">
+        <v>10108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="46"/>
+      <c r="B101" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1229</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1214</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="P101" t="s">
+        <v>338</v>
+      </c>
+      <c r="R101" t="s">
+        <v>371</v>
+      </c>
+      <c r="S101">
+        <v>38916</v>
+      </c>
+      <c r="T101">
+        <v>9628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
+      <c r="B102" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1053385</v>
+      </c>
+      <c r="D102" s="6">
+        <v>50153</v>
+      </c>
+      <c r="F102" s="37"/>
+      <c r="G102" t="s">
+        <v>325</v>
+      </c>
+      <c r="H102" t="s">
+        <v>237</v>
+      </c>
+      <c r="I102" t="s">
+        <v>238</v>
+      </c>
+      <c r="J102" t="s">
+        <v>237</v>
+      </c>
+      <c r="K102" t="s">
+        <v>239</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P102" t="s">
+        <v>339</v>
+      </c>
+      <c r="R102" t="s">
+        <v>372</v>
+      </c>
+      <c r="S102">
+        <v>29534</v>
+      </c>
+      <c r="T102">
+        <v>7273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
+      <c r="B103" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C103" s="6">
+        <v>22564</v>
+      </c>
+      <c r="D103" s="6">
+        <v>22564</v>
+      </c>
+      <c r="F103" s="37"/>
+      <c r="G103" t="s">
+        <v>326</v>
+      </c>
+      <c r="H103" t="s">
+        <v>241</v>
+      </c>
+      <c r="I103" t="s">
+        <v>330</v>
+      </c>
+      <c r="J103" t="s">
+        <v>241</v>
+      </c>
+      <c r="K103" t="s">
+        <v>243</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="P103" t="s">
+        <v>340</v>
+      </c>
+      <c r="R103" t="s">
+        <v>373</v>
+      </c>
+      <c r="S103">
+        <v>19244</v>
+      </c>
+      <c r="T103">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="46"/>
+      <c r="B104" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="6">
+        <v>10925</v>
+      </c>
+      <c r="D104" s="6">
+        <v>10925</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="L104" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="P104" t="s">
+        <v>341</v>
+      </c>
+      <c r="R104" t="s">
+        <v>374</v>
+      </c>
+      <c r="S104">
+        <v>15915</v>
+      </c>
+      <c r="T104">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="6">
+        <v>51203</v>
+      </c>
+      <c r="D105" s="6">
+        <v>51203</v>
+      </c>
+      <c r="F105" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="L105" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P105" t="s">
+        <v>342</v>
+      </c>
+      <c r="R105" t="s">
+        <v>375</v>
+      </c>
+      <c r="S105">
+        <v>12031</v>
+      </c>
+      <c r="T105">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
+      <c r="B106" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="6">
+        <v>37634</v>
+      </c>
+      <c r="D106" s="6">
+        <v>37634</v>
+      </c>
+      <c r="F106" s="37"/>
+      <c r="G106" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" t="s">
+        <v>248</v>
+      </c>
+      <c r="I106" t="s">
+        <v>92</v>
+      </c>
+      <c r="J106" t="s">
+        <v>248</v>
+      </c>
+      <c r="K106" t="s">
+        <v>249</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="P106" t="s">
+        <v>343</v>
+      </c>
+      <c r="R106" t="s">
+        <v>376</v>
+      </c>
+      <c r="S106">
+        <v>7763</v>
+      </c>
+      <c r="T106">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
+      <c r="B107" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="6">
+        <v>145869</v>
+      </c>
+      <c r="D107" s="6">
+        <v>50110</v>
+      </c>
+      <c r="F107" s="37"/>
+      <c r="G107" t="s">
+        <v>326</v>
+      </c>
+      <c r="H107" t="s">
+        <v>92</v>
+      </c>
+      <c r="I107" t="s">
+        <v>251</v>
+      </c>
+      <c r="J107" t="s">
+        <v>92</v>
+      </c>
+      <c r="K107" t="s">
+        <v>92</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P107" t="s">
+        <v>344</v>
+      </c>
+      <c r="R107" t="s">
+        <v>377</v>
+      </c>
+      <c r="S107">
+        <v>707</v>
+      </c>
+      <c r="T107">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="46"/>
+      <c r="B108" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" s="6">
+        <v>15915</v>
+      </c>
+      <c r="D108" s="6">
+        <v>15915</v>
+      </c>
+      <c r="F108" s="43"/>
+      <c r="G108" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="L108" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="P108" t="s">
+        <v>345</v>
+      </c>
+      <c r="R108" t="s">
+        <v>378</v>
+      </c>
+      <c r="S108">
+        <v>282</v>
+      </c>
+      <c r="T108">
         <v>76</v>
       </c>
-      <c r="P88" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>76</v>
-      </c>
-      <c r="R88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" t="s">
-        <v>257</v>
-      </c>
-      <c r="F89" t="s">
-        <v>291</v>
-      </c>
-      <c r="G89" t="s">
-        <v>226</v>
-      </c>
-      <c r="H89" t="s">
-        <v>230</v>
-      </c>
-      <c r="I89" t="s">
-        <v>233</v>
-      </c>
-      <c r="J89" t="s">
-        <v>293</v>
-      </c>
-      <c r="K89" s="4" t="s">
+    </row>
+    <row r="109" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5">
+        <f>SUM(C94:C108)</f>
+        <v>20953649</v>
+      </c>
+      <c r="D109" s="5">
+        <f>SUM(D94:D108)</f>
+        <v>2219201</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" t="s">
+        <v>268</v>
+      </c>
+      <c r="I109" t="s">
         <v>238</v>
       </c>
-      <c r="L89" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="N89" s="4" t="s">
+      <c r="J109" t="s">
+        <v>269</v>
+      </c>
+      <c r="K109" t="s">
+        <v>270</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="P109" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F110" s="37"/>
+      <c r="G110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" t="s">
+        <v>271</v>
+      </c>
+      <c r="I110" t="s">
+        <v>272</v>
+      </c>
+      <c r="J110" t="s">
+        <v>271</v>
+      </c>
+      <c r="K110" t="s">
+        <v>273</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="P110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F111" s="37"/>
+      <c r="G111" t="s">
+        <v>326</v>
+      </c>
+      <c r="H111" t="s">
+        <v>275</v>
+      </c>
+      <c r="I111" t="s">
+        <v>131</v>
+      </c>
+      <c r="J111" t="s">
+        <v>275</v>
+      </c>
+      <c r="K111" t="s">
+        <v>276</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="38"/>
+      <c r="G112" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H112" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="R89" s="3" t="s">
+      <c r="I112" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L112" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="S89" t="s">
-        <v>274</v>
-      </c>
-      <c r="T89" t="s">
-        <v>278</v>
-      </c>
-      <c r="U89" t="s">
-        <v>281</v>
-      </c>
-      <c r="V89" t="s">
-        <v>306</v>
+      <c r="P112" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P116" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P117" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P119" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P120" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="121" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P121" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P122" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P123" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="124" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P124" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P125" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="30">
+    <mergeCell ref="A95:A108"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="V26:V28"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="F105:F108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E78B53-0FAF-E545-B01E-F9DC2CD9CD12}">
+  <dimension ref="A1:AK67"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+    </row>
+    <row r="2" spans="1:21" ht="83" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.96</v>
+      </c>
+      <c r="C3">
+        <v>0.96</v>
+      </c>
+      <c r="D3">
+        <v>0.96</v>
+      </c>
+      <c r="E3">
+        <v>0.96</v>
+      </c>
+      <c r="F3">
+        <v>0.97</v>
+      </c>
+      <c r="G3">
+        <v>0.96</v>
+      </c>
+      <c r="H3">
+        <v>0.97</v>
+      </c>
+      <c r="I3">
+        <v>0.97</v>
+      </c>
+      <c r="J3">
+        <v>0.96</v>
+      </c>
+      <c r="K3">
+        <v>0.96</v>
+      </c>
+      <c r="L3">
+        <v>0.97</v>
+      </c>
+      <c r="M3">
+        <v>0.97</v>
+      </c>
+      <c r="N3">
+        <v>0.97</v>
+      </c>
+      <c r="O3">
+        <v>0.96</v>
+      </c>
+      <c r="P3">
+        <v>0.97</v>
+      </c>
+      <c r="Q3">
+        <v>0.97</v>
+      </c>
+      <c r="R3">
+        <v>0.97</v>
+      </c>
+      <c r="S3">
+        <v>0.96</v>
+      </c>
+      <c r="T3">
+        <v>0.96</v>
+      </c>
+      <c r="U3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.92</v>
+      </c>
+      <c r="C4">
+        <v>0.87</v>
+      </c>
+      <c r="D4">
+        <v>0.91</v>
+      </c>
+      <c r="E4">
+        <v>0.92</v>
+      </c>
+      <c r="F4">
+        <v>0.92</v>
+      </c>
+      <c r="G4">
+        <v>0.72</v>
+      </c>
+      <c r="H4">
+        <v>0.92</v>
+      </c>
+      <c r="I4">
+        <v>0.92</v>
+      </c>
+      <c r="J4">
+        <v>0.83</v>
+      </c>
+      <c r="K4">
+        <v>0.74</v>
+      </c>
+      <c r="L4">
+        <v>0.83</v>
+      </c>
+      <c r="M4">
+        <v>0.83</v>
+      </c>
+      <c r="N4">
+        <v>0.95</v>
+      </c>
+      <c r="O4">
+        <v>0.95</v>
+      </c>
+      <c r="P4">
+        <v>0.95</v>
+      </c>
+      <c r="Q4">
+        <v>0.95</v>
+      </c>
+      <c r="R4">
+        <v>0.83</v>
+      </c>
+      <c r="S4">
+        <v>0.74</v>
+      </c>
+      <c r="T4">
+        <v>0.74</v>
+      </c>
+      <c r="U4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9</v>
+      </c>
+      <c r="K6">
+        <v>0.73</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0.9</v>
+      </c>
+      <c r="S6">
+        <v>0.74</v>
+      </c>
+      <c r="T6">
+        <v>0.74</v>
+      </c>
+      <c r="U6">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.66</v>
+      </c>
+      <c r="E8">
+        <v>0.65</v>
+      </c>
+      <c r="F8">
+        <v>0.72</v>
+      </c>
+      <c r="G8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.71</v>
+      </c>
+      <c r="I8">
+        <v>0.72</v>
+      </c>
+      <c r="J8">
+        <v>0.59</v>
+      </c>
+      <c r="K8">
+        <v>0.39</v>
+      </c>
+      <c r="L8">
+        <v>0.13</v>
+      </c>
+      <c r="M8">
+        <v>0.61</v>
+      </c>
+      <c r="N8">
+        <v>0.8</v>
+      </c>
+      <c r="O8">
+        <v>0.4</v>
+      </c>
+      <c r="P8">
+        <v>0.81</v>
+      </c>
+      <c r="Q8">
+        <v>0.79</v>
+      </c>
+      <c r="R8">
+        <v>0.59</v>
+      </c>
+      <c r="S8">
+        <v>0.39</v>
+      </c>
+      <c r="T8">
+        <v>0.39</v>
+      </c>
+      <c r="U8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.99</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.99</v>
+      </c>
+      <c r="K9">
+        <v>0.85</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.91</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0.99</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.82</v>
+      </c>
+      <c r="C11">
+        <v>0.78</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <v>0.82</v>
+      </c>
+      <c r="G11">
+        <v>0.61</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>0.79</v>
+      </c>
+      <c r="J11">
+        <v>0.41</v>
+      </c>
+      <c r="K11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.84</v>
+      </c>
+      <c r="O11">
+        <v>0.84</v>
+      </c>
+      <c r="P11">
+        <v>0.85</v>
+      </c>
+      <c r="Q11">
+        <v>0.84</v>
+      </c>
+      <c r="R11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.6</v>
+      </c>
+      <c r="T11">
+        <v>0.6</v>
+      </c>
+      <c r="U11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.96</v>
+      </c>
+      <c r="C12">
+        <v>0.91</v>
+      </c>
+      <c r="D12">
+        <v>0.96</v>
+      </c>
+      <c r="E12">
+        <v>0.96</v>
+      </c>
+      <c r="F12">
+        <v>0.98</v>
+      </c>
+      <c r="G12">
+        <v>0.93</v>
+      </c>
+      <c r="H12">
+        <v>0.98</v>
+      </c>
+      <c r="I12">
+        <v>0.98</v>
+      </c>
+      <c r="J12">
+        <v>0.67</v>
+      </c>
+      <c r="K12">
+        <v>0.65</v>
+      </c>
+      <c r="L12">
+        <v>0.67</v>
+      </c>
+      <c r="M12">
+        <v>0.66</v>
+      </c>
+      <c r="N12">
+        <v>0.98</v>
+      </c>
+      <c r="O12">
+        <v>0.97</v>
+      </c>
+      <c r="P12">
+        <v>0.98</v>
+      </c>
+      <c r="Q12">
+        <v>0.98</v>
+      </c>
+      <c r="R12">
+        <v>0.67</v>
+      </c>
+      <c r="S12">
+        <v>0.65</v>
+      </c>
+      <c r="T12">
+        <v>0.65</v>
+      </c>
+      <c r="U12">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.92</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0.92</v>
+      </c>
+      <c r="E13">
+        <v>0.92</v>
+      </c>
+      <c r="F13">
+        <v>0.93</v>
+      </c>
+      <c r="G13">
+        <v>0.92</v>
+      </c>
+      <c r="H13">
+        <v>0.93</v>
+      </c>
+      <c r="I13">
+        <v>0.93</v>
+      </c>
+      <c r="J13">
+        <v>0.92</v>
+      </c>
+      <c r="K13">
+        <v>0.94</v>
+      </c>
+      <c r="L13">
+        <v>0.94</v>
+      </c>
+      <c r="M13">
+        <v>0.94</v>
+      </c>
+      <c r="N13">
+        <v>0.94</v>
+      </c>
+      <c r="O13">
+        <v>0.93</v>
+      </c>
+      <c r="P13">
+        <v>0.94</v>
+      </c>
+      <c r="Q13">
+        <v>0.94</v>
+      </c>
+      <c r="R13">
+        <v>0.94</v>
+      </c>
+      <c r="S13">
+        <v>0.94</v>
+      </c>
+      <c r="T13">
+        <v>0.94</v>
+      </c>
+      <c r="U13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.83</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>0.83</v>
+      </c>
+      <c r="E14">
+        <v>0.83</v>
+      </c>
+      <c r="F14">
+        <v>0.83</v>
+      </c>
+      <c r="G14">
+        <v>0.67</v>
+      </c>
+      <c r="H14">
+        <v>0.82</v>
+      </c>
+      <c r="I14">
+        <v>0.82</v>
+      </c>
+      <c r="J14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
+      <c r="L14">
+        <v>0.6</v>
+      </c>
+      <c r="M14">
+        <v>0.61</v>
+      </c>
+      <c r="N14">
+        <v>0.85</v>
+      </c>
+      <c r="O14">
+        <v>0.85</v>
+      </c>
+      <c r="P14">
+        <v>0.85</v>
+      </c>
+      <c r="Q14">
+        <v>0.85</v>
+      </c>
+      <c r="R14">
+        <v>0.61</v>
+      </c>
+      <c r="S14">
+        <v>0.31</v>
+      </c>
+      <c r="T14">
+        <v>0.36</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15">
+        <v>0.77</v>
+      </c>
+      <c r="D15">
+        <v>0.78</v>
+      </c>
+      <c r="E15">
+        <v>0.78</v>
+      </c>
+      <c r="F15">
+        <v>0.81</v>
+      </c>
+      <c r="G15">
+        <v>0.62</v>
+      </c>
+      <c r="H15">
+        <v>0.79</v>
+      </c>
+      <c r="I15">
+        <v>0.79</v>
+      </c>
+      <c r="J15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L15">
+        <v>0.52</v>
+      </c>
+      <c r="M15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N15">
+        <v>0.84</v>
+      </c>
+      <c r="O15">
+        <v>0.84</v>
+      </c>
+      <c r="P15">
+        <v>0.84</v>
+      </c>
+      <c r="Q15">
+        <v>0.84</v>
+      </c>
+      <c r="R15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U15">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.96</v>
+      </c>
+      <c r="C16">
+        <v>0.95</v>
+      </c>
+      <c r="D16">
+        <v>0.96</v>
+      </c>
+      <c r="E16">
+        <v>0.96</v>
+      </c>
+      <c r="F16">
+        <v>0.97</v>
+      </c>
+      <c r="G16">
+        <v>0.94</v>
+      </c>
+      <c r="H16">
+        <v>0.96</v>
+      </c>
+      <c r="I16">
+        <v>0.96</v>
+      </c>
+      <c r="J16">
+        <v>0.9</v>
+      </c>
+      <c r="K16">
+        <v>0.89</v>
+      </c>
+      <c r="L16">
+        <v>0.89</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+      <c r="N16">
+        <v>0.98</v>
+      </c>
+      <c r="O16">
+        <v>0.98</v>
+      </c>
+      <c r="P16">
+        <v>0.98</v>
+      </c>
+      <c r="Q16">
+        <v>0.98</v>
+      </c>
+      <c r="R16">
+        <v>0.91</v>
+      </c>
+      <c r="S16">
+        <v>0.91</v>
+      </c>
+      <c r="T16">
+        <v>0.9</v>
+      </c>
+      <c r="U16">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <v>0.72</v>
+      </c>
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <v>0.79</v>
+      </c>
+      <c r="G17">
+        <v>0.53</v>
+      </c>
+      <c r="H17">
+        <v>0.79</v>
+      </c>
+      <c r="I17">
+        <v>0.79</v>
+      </c>
+      <c r="J17">
+        <v>0.39</v>
+      </c>
+      <c r="K17">
+        <v>0.45</v>
+      </c>
+      <c r="L17">
+        <v>0.34</v>
+      </c>
+      <c r="M17">
+        <v>0.4</v>
+      </c>
+      <c r="N17">
+        <v>0.87</v>
+      </c>
+      <c r="O17">
+        <v>0.85</v>
+      </c>
+      <c r="P17">
+        <v>0.87</v>
+      </c>
+      <c r="Q17">
+        <v>0.86</v>
+      </c>
+      <c r="R17">
+        <v>0.44</v>
+      </c>
+      <c r="S17">
+        <v>0.51</v>
+      </c>
+      <c r="T17">
+        <v>0.46</v>
+      </c>
+      <c r="U17">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="41"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="O21" s="41"/>
+      <c r="P21" s="49"/>
+    </row>
+    <row r="22" spans="1:21" ht="83" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="23">
+        <f>((B3-C3)/B3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <f>((B3-D3)/B3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <f>((B3-E3)/B3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <f>((F3-G3)/F3)*100</f>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="F23" s="20">
+        <f>((F3-H3)/F3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
+        <f>((F3-I3)/F3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <f>((J3-K3)/J3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <f>((J3-L3)/J3)*100</f>
+        <v>-1.0416666666666676</v>
+      </c>
+      <c r="J23" s="24">
+        <f>((J3-M3)/J3)*100</f>
+        <v>-1.0416666666666676</v>
+      </c>
+      <c r="K23" s="25">
+        <f>((N3-O3)/N3)*100</f>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="L23" s="20">
+        <f>((N3-P3)/N3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="24">
+        <f>((N3-Q3)/N3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="25">
+        <f>((R3-S3)/R3)*100</f>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="O23" s="20">
+        <f>((R3-T3)/R3)*100</f>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="P23" s="24">
+        <f>((R3-U3)/R3)*100</f>
+        <v>1.0309278350515474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23">
+        <f t="shared" ref="B24:B37" si="0">((B4-C4)/B4)*100</f>
+        <v>5.4347826086956568</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" ref="C24:C37" si="1">((B4-D4)/B4)*100</f>
+        <v>1.0869565217391313</v>
+      </c>
+      <c r="D24" s="24">
+        <f t="shared" ref="D24:D37" si="2">((B4-E4)/B4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" ref="E24:E37" si="3">((F4-G4)/F4)*100</f>
+        <v>21.739130434782613</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" ref="F24:F37" si="4">((F4-H4)/F4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" ref="G24:G37" si="5">((F4-I4)/F4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" ref="H24:H37" si="6">((J4-K4)/J4)*100</f>
+        <v>10.843373493975902</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" ref="I24:I37" si="7">((J4-L4)/J4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" ref="J24:J37" si="8">((J4-M4)/J4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" ref="K24:K37" si="9">((N4-O4)/N4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" ref="L24:L37" si="10">((N4-P4)/N4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" ref="M24:M37" si="11">((N4-Q4)/N4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" ref="N24:N37" si="12">((R4-S4)/R4)*100</f>
+        <v>10.843373493975902</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" ref="O24:O37" si="13">((R4-T4)/R4)*100</f>
+        <v>10.843373493975902</v>
+      </c>
+      <c r="P24" s="24">
+        <f t="shared" ref="P24:P37" si="14">((R4-U4)/R4)*100</f>
+        <v>10.843373493975902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="6"/>
+        <v>18.888888888888893</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="12"/>
+        <v>17.777777777777782</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="13"/>
+        <v>17.777777777777782</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="14"/>
+        <v>17.777777777777782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="23">
+        <f t="shared" si="0"/>
+        <v>56.060606060606069</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <f t="shared" si="2"/>
+        <v>1.5151515151515165</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="3"/>
+        <v>59.722222222222221</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="4"/>
+        <v>1.3888888888888902</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" si="6"/>
+        <v>33.898305084745758</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="7"/>
+        <v>77.966101694915253</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.3898305084745797</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="10"/>
+        <v>-1.2500000000000011</v>
+      </c>
+      <c r="M28" s="24">
+        <f t="shared" si="11"/>
+        <v>1.2500000000000011</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="12"/>
+        <v>33.898305084745758</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="13"/>
+        <v>33.898305084745758</v>
+      </c>
+      <c r="P28" s="24">
+        <f t="shared" si="14"/>
+        <v>33.898305084745758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="D29" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="6"/>
+        <v>14.141414141414144</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="7"/>
+        <v>-1.0101010101010111</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="8"/>
+        <v>8.0808080808080778</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="O29" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="23">
+        <f t="shared" si="0"/>
+        <v>4.8780487804877959</v>
+      </c>
+      <c r="C31" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4390243902438913</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="2"/>
+        <v>2.4390243902438913</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="3"/>
+        <v>25.609756097560972</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="4"/>
+        <v>2.4390243902438913</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="5"/>
+        <v>3.6585365853658436</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="6"/>
+        <v>29.268292682926827</v>
+      </c>
+      <c r="I31" s="20">
+        <f t="shared" si="7"/>
+        <v>29.268292682926827</v>
+      </c>
+      <c r="J31" s="24">
+        <f t="shared" si="8"/>
+        <v>29.268292682926827</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" si="10"/>
+        <v>-1.1904761904761916</v>
+      </c>
+      <c r="M31" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="12"/>
+        <v>-106.89655172413795</v>
+      </c>
+      <c r="O31" s="20">
+        <f t="shared" si="13"/>
+        <v>-106.89655172413795</v>
+      </c>
+      <c r="P31" s="24">
+        <f t="shared" si="14"/>
+        <v>-89.655172413793125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="23">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333268</v>
+      </c>
+      <c r="C32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="3"/>
+        <v>5.1020408163265234</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="6"/>
+        <v>2.985074626865674</v>
+      </c>
+      <c r="I32" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="8"/>
+        <v>1.492537313432837</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="9"/>
+        <v>1.020408163265307</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="12"/>
+        <v>2.985074626865674</v>
+      </c>
+      <c r="O32" s="20">
+        <f t="shared" si="13"/>
+        <v>2.985074626865674</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="14"/>
+        <v>2.985074626865674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1739130434782625</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="3"/>
+        <v>1.0752688172043021</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="6"/>
+        <v>-2.1739130434782505</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="7"/>
+        <v>-2.1739130434782505</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="8"/>
+        <v>-2.1739130434782505</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="9"/>
+        <v>1.0638297872340319</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="23">
+        <f t="shared" si="0"/>
+        <v>3.6144578313252915</v>
+      </c>
+      <c r="C34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="3"/>
+        <v>19.277108433734931</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>1.2048192771084349</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="5"/>
+        <v>1.2048192771084349</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="6"/>
+        <v>-3.4482758620689689</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" si="7"/>
+        <v>-3.4482758620689689</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="8"/>
+        <v>-5.1724137931034528</v>
+      </c>
+      <c r="K34" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="12"/>
+        <v>49.180327868852459</v>
+      </c>
+      <c r="O34" s="20">
+        <f t="shared" si="13"/>
+        <v>40.983606557377051</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="14"/>
+        <v>18.032786885245898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="23">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000036</v>
+      </c>
+      <c r="C35" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000022</v>
+      </c>
+      <c r="D35" s="24">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000022</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="3"/>
+        <v>23.456790123456795</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="4"/>
+        <v>2.4691358024691379</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="5"/>
+        <v>2.4691358024691379</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571477</v>
+      </c>
+      <c r="J35" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666676</v>
+      </c>
+      <c r="C36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="3"/>
+        <v>3.092783505154642</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="5"/>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" si="6"/>
+        <v>1.111111111111112</v>
+      </c>
+      <c r="I36" s="20">
+        <f t="shared" si="7"/>
+        <v>1.111111111111112</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" si="13"/>
+        <v>1.0989010989010999</v>
+      </c>
+      <c r="P36" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="23">
+        <f t="shared" si="0"/>
+        <v>10.000000000000009</v>
+      </c>
+      <c r="C37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="3"/>
+        <v>32.911392405063289</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="25">
+        <f t="shared" si="6"/>
+        <v>-15.384615384615383</v>
+      </c>
+      <c r="I37" s="20">
+        <f t="shared" si="7"/>
+        <v>12.820512820512816</v>
+      </c>
+      <c r="J37" s="24">
+        <f t="shared" si="8"/>
+        <v>-2.5641025641025665</v>
+      </c>
+      <c r="K37" s="25">
+        <f t="shared" si="9"/>
+        <v>2.2988505747126458</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="24">
+        <f t="shared" si="11"/>
+        <v>1.1494252873563229</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" si="12"/>
+        <v>-15.909090909090912</v>
+      </c>
+      <c r="O37" s="20">
+        <f t="shared" si="13"/>
+        <v>-4.5454545454545494</v>
+      </c>
+      <c r="P37" s="24">
+        <f t="shared" si="14"/>
+        <v>-9.0909090909090864</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W47" s="39"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA47" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC47" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH47" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI47" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK47" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="W48" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y48" s="26">
+        <v>98.07</v>
+      </c>
+      <c r="Z48" s="26">
+        <v>98.07</v>
+      </c>
+      <c r="AA48" s="26">
+        <v>98.07</v>
+      </c>
+      <c r="AB48" s="26">
+        <v>98.07</v>
+      </c>
+      <c r="AC48" s="27">
+        <v>91.02</v>
+      </c>
+      <c r="AE48" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG48" s="36">
+        <f>Y48/100</f>
+        <v>0.98069999999999991</v>
+      </c>
+      <c r="AH48" s="36">
+        <f>Z48/100</f>
+        <v>0.98069999999999991</v>
+      </c>
+      <c r="AI48" s="36">
+        <f>AA48/100</f>
+        <v>0.98069999999999991</v>
+      </c>
+      <c r="AJ48" s="36">
+        <f>AB48/100</f>
+        <v>0.98069999999999991</v>
+      </c>
+      <c r="AK48" s="36">
+        <f>AC48/100</f>
+        <v>0.91020000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W49" s="37"/>
+      <c r="X49" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y49" s="28">
+        <v>97.5</v>
+      </c>
+      <c r="Z49" s="28">
+        <v>97.64</v>
+      </c>
+      <c r="AA49" s="28">
+        <v>97.5</v>
+      </c>
+      <c r="AB49" s="28">
+        <v>97.55</v>
+      </c>
+      <c r="AC49" s="29">
+        <v>89.54</v>
+      </c>
+      <c r="AE49" s="37"/>
+      <c r="AF49" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG49" s="36">
+        <f t="shared" ref="AG49:AG67" si="15">Y49/100</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AH49" s="36">
+        <f t="shared" ref="AH49:AH67" si="16">Z49/100</f>
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="AI49" s="36">
+        <f t="shared" ref="AI49:AI67" si="17">AA49/100</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AJ49" s="36">
+        <f t="shared" ref="AJ49:AJ67" si="18">AB49/100</f>
+        <v>0.97549999999999992</v>
+      </c>
+      <c r="AK49" s="36">
+        <f t="shared" ref="AK49:AK67" si="19">AC49/100</f>
+        <v>0.89540000000000008</v>
+      </c>
+    </row>
+    <row r="50" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W50" s="37"/>
+      <c r="X50" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y50" s="28">
+        <v>97.96</v>
+      </c>
+      <c r="Z50" s="28">
+        <v>97.96</v>
+      </c>
+      <c r="AA50" s="28">
+        <v>97.96</v>
+      </c>
+      <c r="AB50" s="28">
+        <v>97.96</v>
+      </c>
+      <c r="AC50" s="29">
+        <v>90.09</v>
+      </c>
+      <c r="AE50" s="37"/>
+      <c r="AF50" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG50" s="36">
+        <f t="shared" si="15"/>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="AH50" s="36">
+        <f t="shared" si="16"/>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="AI50" s="36">
+        <f t="shared" si="17"/>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="AJ50" s="36">
+        <f t="shared" si="18"/>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="AK50" s="36">
+        <f t="shared" si="19"/>
+        <v>0.90090000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="23:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="43"/>
+      <c r="X51" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y51" s="30">
+        <v>97.97</v>
+      </c>
+      <c r="Z51" s="30">
+        <v>97.96</v>
+      </c>
+      <c r="AA51" s="30">
+        <v>97.97</v>
+      </c>
+      <c r="AB51" s="30">
+        <v>97.96</v>
+      </c>
+      <c r="AC51" s="31">
+        <v>90.68</v>
+      </c>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG51" s="36">
+        <f t="shared" si="15"/>
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="AH51" s="36">
+        <f t="shared" si="16"/>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="AI51" s="36">
+        <f t="shared" si="17"/>
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="AJ51" s="36">
+        <f t="shared" si="18"/>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="AK51" s="36">
+        <f t="shared" si="19"/>
+        <v>0.90680000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W52" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="X52" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y52" s="28">
+        <v>98.15</v>
+      </c>
+      <c r="Z52" s="28">
+        <v>98.16</v>
+      </c>
+      <c r="AA52" s="28">
+        <v>98.15</v>
+      </c>
+      <c r="AB52" s="28">
+        <v>98.15</v>
+      </c>
+      <c r="AC52" s="29">
+        <v>90.97</v>
+      </c>
+      <c r="AE52" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG52" s="36">
+        <f t="shared" si="15"/>
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AH52" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98159999999999992</v>
+      </c>
+      <c r="AI52" s="36">
+        <f t="shared" si="17"/>
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AJ52" s="36">
+        <f t="shared" si="18"/>
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AK52" s="36">
+        <f t="shared" si="19"/>
+        <v>0.90969999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W53" s="37"/>
+      <c r="X53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y53" s="28">
+        <v>95.82</v>
+      </c>
+      <c r="Z53" s="28">
+        <v>96.88</v>
+      </c>
+      <c r="AA53" s="28">
+        <v>95.82</v>
+      </c>
+      <c r="AB53" s="28">
+        <v>95.94</v>
+      </c>
+      <c r="AC53" s="29">
+        <v>85.4</v>
+      </c>
+      <c r="AE53" s="37"/>
+      <c r="AF53" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG53" s="36">
+        <f t="shared" si="15"/>
+        <v>0.95819999999999994</v>
+      </c>
+      <c r="AH53" s="36">
+        <f t="shared" si="16"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="AI53" s="36">
+        <f t="shared" si="17"/>
+        <v>0.95819999999999994</v>
+      </c>
+      <c r="AJ53" s="36">
+        <f t="shared" si="18"/>
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="AK53" s="36">
+        <f t="shared" si="19"/>
+        <v>0.85400000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W54" s="37"/>
+      <c r="X54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y54" s="28">
+        <v>98.02</v>
+      </c>
+      <c r="Z54" s="28">
+        <v>98.02</v>
+      </c>
+      <c r="AA54" s="28">
+        <v>98.02</v>
+      </c>
+      <c r="AB54" s="28">
+        <v>98.01</v>
+      </c>
+      <c r="AC54" s="29">
+        <v>90.62</v>
+      </c>
+      <c r="AE54" s="37"/>
+      <c r="AF54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG54" s="36">
+        <f t="shared" si="15"/>
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="AH54" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="AI54" s="36">
+        <f t="shared" si="17"/>
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="AJ54" s="36">
+        <f t="shared" si="18"/>
+        <v>0.98010000000000008</v>
+      </c>
+      <c r="AK54" s="36">
+        <f t="shared" si="19"/>
+        <v>0.90620000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="23:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="37"/>
+      <c r="X55" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y55" s="28">
+        <v>98</v>
+      </c>
+      <c r="Z55" s="28">
+        <v>98.01</v>
+      </c>
+      <c r="AA55" s="28">
+        <v>98</v>
+      </c>
+      <c r="AB55" s="28">
+        <v>98</v>
+      </c>
+      <c r="AC55" s="29">
+        <v>90.58</v>
+      </c>
+      <c r="AE55" s="37"/>
+      <c r="AF55" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG55" s="36">
+        <f t="shared" si="15"/>
+        <v>0.98</v>
+      </c>
+      <c r="AH55" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98010000000000008</v>
+      </c>
+      <c r="AI55" s="36">
+        <f t="shared" si="17"/>
+        <v>0.98</v>
+      </c>
+      <c r="AJ55" s="36">
+        <f t="shared" si="18"/>
+        <v>0.98</v>
+      </c>
+      <c r="AK55" s="36">
+        <f t="shared" si="19"/>
+        <v>0.90579999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W56" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="X56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y56" s="32">
+        <v>94.82</v>
+      </c>
+      <c r="Z56" s="32">
+        <v>95.21</v>
+      </c>
+      <c r="AA56" s="32">
+        <v>94.82</v>
+      </c>
+      <c r="AB56" s="32">
+        <v>94.57</v>
+      </c>
+      <c r="AC56" s="33">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="AE56" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG56" s="36">
+        <f t="shared" si="15"/>
+        <v>0.94819999999999993</v>
+      </c>
+      <c r="AH56" s="36">
+        <f t="shared" si="16"/>
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="AI56" s="36">
+        <f t="shared" si="17"/>
+        <v>0.94819999999999993</v>
+      </c>
+      <c r="AJ56" s="36">
+        <f t="shared" si="18"/>
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="AK56" s="36">
+        <f t="shared" si="19"/>
+        <v>0.7743000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W57" s="37"/>
+      <c r="X57" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y57" s="28">
+        <v>93.75</v>
+      </c>
+      <c r="Z57" s="28">
+        <v>96.24</v>
+      </c>
+      <c r="AA57" s="28">
+        <v>93.75</v>
+      </c>
+      <c r="AB57" s="28">
+        <v>93.67</v>
+      </c>
+      <c r="AC57" s="29">
+        <v>80.67</v>
+      </c>
+      <c r="AE57" s="37"/>
+      <c r="AF57" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG57" s="36">
+        <f t="shared" si="15"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AH57" s="36">
+        <f t="shared" si="16"/>
+        <v>0.96239999999999992</v>
+      </c>
+      <c r="AI57" s="36">
+        <f t="shared" si="17"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AJ57" s="36">
+        <f t="shared" si="18"/>
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AK57" s="36">
+        <f t="shared" si="19"/>
+        <v>0.80669999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W58" s="37"/>
+      <c r="X58" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y58" s="28">
+        <v>94.71</v>
+      </c>
+      <c r="Z58" s="28">
+        <v>95.9</v>
+      </c>
+      <c r="AA58" s="28">
+        <v>94.71</v>
+      </c>
+      <c r="AB58" s="28">
+        <v>94.18</v>
+      </c>
+      <c r="AC58" s="29">
+        <v>73.34</v>
+      </c>
+      <c r="AE58" s="37"/>
+      <c r="AF58" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG58" s="36">
+        <f t="shared" si="15"/>
+        <v>0.94709999999999994</v>
+      </c>
+      <c r="AH58" s="36">
+        <f t="shared" si="16"/>
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="AI58" s="36">
+        <f t="shared" si="17"/>
+        <v>0.94709999999999994</v>
+      </c>
+      <c r="AJ58" s="36">
+        <f t="shared" si="18"/>
+        <v>0.94180000000000008</v>
+      </c>
+      <c r="AK58" s="36">
+        <f t="shared" si="19"/>
+        <v>0.73340000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="23:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="43"/>
+      <c r="X59" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y59" s="30">
+        <v>94.86</v>
+      </c>
+      <c r="Z59" s="30">
+        <v>96.07</v>
+      </c>
+      <c r="AA59" s="30">
+        <v>94.86</v>
+      </c>
+      <c r="AB59" s="30">
+        <v>94.38</v>
+      </c>
+      <c r="AC59" s="31">
+        <v>75.75</v>
+      </c>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG59" s="36">
+        <f t="shared" si="15"/>
+        <v>0.9486</v>
+      </c>
+      <c r="AH59" s="36">
+        <f t="shared" si="16"/>
+        <v>0.96069999999999989</v>
+      </c>
+      <c r="AI59" s="36">
+        <f t="shared" si="17"/>
+        <v>0.9486</v>
+      </c>
+      <c r="AJ59" s="36">
+        <f t="shared" si="18"/>
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="AK59" s="36">
+        <f t="shared" si="19"/>
+        <v>0.75749999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W60" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="X60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y60" s="32">
+        <v>98.52</v>
+      </c>
+      <c r="Z60" s="32">
+        <v>98.57</v>
+      </c>
+      <c r="AA60" s="32">
+        <v>98.52</v>
+      </c>
+      <c r="AB60" s="32">
+        <v>92.87</v>
+      </c>
+      <c r="AC60" s="33">
+        <v>92.87</v>
+      </c>
+      <c r="AE60" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG60" s="36">
+        <f t="shared" si="15"/>
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AH60" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98569999999999991</v>
+      </c>
+      <c r="AI60" s="36">
+        <f t="shared" si="17"/>
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AJ60" s="36">
+        <f t="shared" si="18"/>
+        <v>0.92870000000000008</v>
+      </c>
+      <c r="AK60" s="36">
+        <f t="shared" si="19"/>
+        <v>0.92870000000000008</v>
+      </c>
+    </row>
+    <row r="61" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W61" s="37"/>
+      <c r="X61" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y61" s="28">
+        <v>98.41</v>
+      </c>
+      <c r="Z61" s="28">
+        <v>98.51</v>
+      </c>
+      <c r="AA61" s="28">
+        <v>98.41</v>
+      </c>
+      <c r="AB61" s="28">
+        <v>98.44</v>
+      </c>
+      <c r="AC61" s="29">
+        <v>93.55</v>
+      </c>
+      <c r="AE61" s="37"/>
+      <c r="AF61" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG61" s="36">
+        <f t="shared" si="15"/>
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="AH61" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98510000000000009</v>
+      </c>
+      <c r="AI61" s="36">
+        <f t="shared" si="17"/>
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="AJ61" s="36">
+        <f t="shared" si="18"/>
+        <v>0.98439999999999994</v>
+      </c>
+      <c r="AK61" s="36">
+        <f t="shared" si="19"/>
+        <v>0.9355</v>
+      </c>
+    </row>
+    <row r="62" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W62" s="37"/>
+      <c r="X62" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y62" s="28">
+        <v>98.51</v>
+      </c>
+      <c r="Z62" s="28">
+        <v>98.54</v>
+      </c>
+      <c r="AA62" s="28">
+        <v>98.51</v>
+      </c>
+      <c r="AB62" s="28">
+        <v>98.51</v>
+      </c>
+      <c r="AC62" s="29">
+        <v>92.77</v>
+      </c>
+      <c r="AE62" s="37"/>
+      <c r="AF62" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG62" s="36">
+        <f t="shared" si="15"/>
+        <v>0.98510000000000009</v>
+      </c>
+      <c r="AH62" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="AI62" s="36">
+        <f t="shared" si="17"/>
+        <v>0.98510000000000009</v>
+      </c>
+      <c r="AJ62" s="36">
+        <f t="shared" si="18"/>
+        <v>0.98510000000000009</v>
+      </c>
+      <c r="AK62" s="36">
+        <f t="shared" si="19"/>
+        <v>0.92769999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="23:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W63" s="43"/>
+      <c r="X63" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y63" s="30">
+        <v>98.49</v>
+      </c>
+      <c r="Z63" s="30">
+        <v>98.52</v>
+      </c>
+      <c r="AA63" s="30">
+        <v>98.49</v>
+      </c>
+      <c r="AB63" s="30">
+        <v>98.5</v>
+      </c>
+      <c r="AC63" s="31">
+        <v>92.59</v>
+      </c>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG63" s="36">
+        <f t="shared" si="15"/>
+        <v>0.9849</v>
+      </c>
+      <c r="AH63" s="36">
+        <f t="shared" si="16"/>
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AI63" s="36">
+        <f t="shared" si="17"/>
+        <v>0.9849</v>
+      </c>
+      <c r="AJ63" s="36">
+        <f t="shared" si="18"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AK63" s="36">
+        <f t="shared" si="19"/>
+        <v>0.92590000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W64" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X64" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y64" s="28">
+        <v>94.94</v>
+      </c>
+      <c r="Z64" s="28">
+        <v>96.24</v>
+      </c>
+      <c r="AA64" s="28">
+        <v>94.48</v>
+      </c>
+      <c r="AB64" s="28">
+        <v>77.13</v>
+      </c>
+      <c r="AC64" s="29">
+        <v>77.13</v>
+      </c>
+      <c r="AE64" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG64" s="36">
+        <f t="shared" si="15"/>
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AH64" s="36">
+        <f t="shared" si="16"/>
+        <v>0.96239999999999992</v>
+      </c>
+      <c r="AI64" s="36">
+        <f t="shared" si="17"/>
+        <v>0.94480000000000008</v>
+      </c>
+      <c r="AJ64" s="36">
+        <f t="shared" si="18"/>
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="AK64" s="36">
+        <f t="shared" si="19"/>
+        <v>0.77129999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W65" s="37"/>
+      <c r="X65" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y65" s="28">
+        <v>93.91</v>
+      </c>
+      <c r="Z65" s="28">
+        <v>96.42</v>
+      </c>
+      <c r="AA65" s="28">
+        <v>93.91</v>
+      </c>
+      <c r="AB65" s="28">
+        <v>93.85</v>
+      </c>
+      <c r="AC65" s="29">
+        <v>81.41</v>
+      </c>
+      <c r="AE65" s="37"/>
+      <c r="AF65" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG65" s="36">
+        <f t="shared" si="15"/>
+        <v>0.93909999999999993</v>
+      </c>
+      <c r="AH65" s="36">
+        <f t="shared" si="16"/>
+        <v>0.96420000000000006</v>
+      </c>
+      <c r="AI65" s="36">
+        <f t="shared" si="17"/>
+        <v>0.93909999999999993</v>
+      </c>
+      <c r="AJ65" s="36">
+        <f t="shared" si="18"/>
+        <v>0.93849999999999989</v>
+      </c>
+      <c r="AK65" s="36">
+        <f t="shared" si="19"/>
+        <v>0.81409999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="23:37" x14ac:dyDescent="0.2">
+      <c r="W66" s="37"/>
+      <c r="X66" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y66" s="28">
+        <v>93.82</v>
+      </c>
+      <c r="Z66" s="28">
+        <v>95.78</v>
+      </c>
+      <c r="AA66" s="28">
+        <v>93.82</v>
+      </c>
+      <c r="AB66" s="28">
+        <v>93.88</v>
+      </c>
+      <c r="AC66" s="29">
+        <v>80.63</v>
+      </c>
+      <c r="AE66" s="37"/>
+      <c r="AF66" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG66" s="36">
+        <f t="shared" si="15"/>
+        <v>0.93819999999999992</v>
+      </c>
+      <c r="AH66" s="36">
+        <f t="shared" si="16"/>
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="AI66" s="36">
+        <f t="shared" si="17"/>
+        <v>0.93819999999999992</v>
+      </c>
+      <c r="AJ66" s="36">
+        <f t="shared" si="18"/>
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="AK66" s="36">
+        <f t="shared" si="19"/>
+        <v>0.80629999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="23:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="38"/>
+      <c r="X67" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y67" s="34">
+        <v>93.87</v>
+      </c>
+      <c r="Z67" s="34">
+        <v>95.35</v>
+      </c>
+      <c r="AA67" s="34">
+        <v>93.87</v>
+      </c>
+      <c r="AB67" s="34">
+        <v>94.13</v>
+      </c>
+      <c r="AC67" s="35">
+        <v>80.95</v>
+      </c>
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG67" s="36">
+        <f t="shared" si="15"/>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="AH67" s="36">
+        <f t="shared" si="16"/>
+        <v>0.9534999999999999</v>
+      </c>
+      <c r="AI67" s="36">
+        <f t="shared" si="17"/>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="AJ67" s="36">
+        <f t="shared" si="18"/>
+        <v>0.94129999999999991</v>
+      </c>
+      <c r="AK67" s="36">
+        <f t="shared" si="19"/>
+        <v>0.8095</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AE48:AE51"/>
+    <mergeCell ref="AE52:AE55"/>
+    <mergeCell ref="AE56:AE59"/>
+    <mergeCell ref="AE60:AE63"/>
+    <mergeCell ref="AE64:AE67"/>
+    <mergeCell ref="W48:W51"/>
+    <mergeCell ref="W52:W55"/>
+    <mergeCell ref="W56:W59"/>
+    <mergeCell ref="W60:W63"/>
+    <mergeCell ref="W64:W67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00EB83-D553-844E-B112-3DFF9CC90883}">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.96</v>
+      </c>
+      <c r="C3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.95</v>
+      </c>
+      <c r="C4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.84</v>
+      </c>
+      <c r="C11">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.97</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.93</v>
+      </c>
+      <c r="C13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+      <c r="C14">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.84</v>
+      </c>
+      <c r="C15">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.98</v>
+      </c>
+      <c r="C16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.85</v>
+      </c>
+      <c r="C17">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="50"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="50"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="50"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>